--- a/outputs-HGR-r202/g__Acidaminococcus.xlsx
+++ b/outputs-HGR-r202/g__Acidaminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,32 +1425,32 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT29878.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5229862516477378</v>
+        <v>0.4112272857062546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005480143223785608</v>
+        <v>0.03630604225284313</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003793099613146697</v>
+        <v>0.003842934175529615</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05391319820122887</v>
+        <v>0.3698715123063652</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3354334302836744</v>
+        <v>0.007970417349150655</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06900386206654431</v>
+        <v>0.003842934175529613</v>
       </c>
       <c r="H28" t="n">
-        <v>0.009390014963882042</v>
+        <v>0.1669388740343272</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5229862516477378</v>
+        <v>0.4112272857062546</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1461,104 +1461,104 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32691.fa</t>
+          <t>even_MAG-GUT31785.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.219958130383727e-14</v>
+        <v>0.5229862516477378</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004804817801550287</v>
+        <v>0.005480143223785608</v>
       </c>
       <c r="D29" t="n">
-        <v>2.219958130383727e-14</v>
+        <v>0.003793099613146697</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02146749037506566</v>
+        <v>0.05391319820122887</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9730032924418239</v>
+        <v>0.3354334302836744</v>
       </c>
       <c r="G29" t="n">
-        <v>2.219958130383727e-14</v>
+        <v>0.06900386206654431</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0007243993814935734</v>
+        <v>0.009390014963882042</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9730032924418239</v>
+        <v>0.5229862516477378</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus sp900538365</t>
+          <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT32691.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4286141693916456</v>
+        <v>2.219958130383727e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005846710797809229</v>
+        <v>0.004804817801550287</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004089982617067623</v>
+        <v>2.219958130383727e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0667172855818825</v>
+        <v>0.02146749037506566</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4767210906494135</v>
+        <v>0.9730032924418239</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004089982617067625</v>
+        <v>2.219958130383727e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01392077834511399</v>
+        <v>0.0007243993814935734</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4767210906494135</v>
+        <v>0.9730032924418239</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33657.fa</t>
+          <t>even_MAG-GUT33530.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7222837146184959</v>
+        <v>0.4286141693916456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07353380131587416</v>
+        <v>0.005846710797809229</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003925311899599075</v>
+        <v>0.004089982617067623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08753237453841198</v>
+        <v>0.0667172855818825</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01217796971298659</v>
+        <v>0.4767210906494135</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003925311899599068</v>
+        <v>0.004089982617067625</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09662151601503315</v>
+        <v>0.01392077834511399</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7222837146184959</v>
+        <v>0.4767210906494135</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1569,68 +1569,68 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37976.fa</t>
+          <t>even_MAG-GUT33657.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.220090670076376e-14</v>
+        <v>0.7222837146184959</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003443144828685967</v>
+        <v>0.07353380131587416</v>
       </c>
       <c r="D32" t="n">
-        <v>2.220090670076376e-14</v>
+        <v>0.003925311899599075</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02163768243249031</v>
+        <v>0.08753237453841198</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9747006471078801</v>
+        <v>0.01217796971298659</v>
       </c>
       <c r="G32" t="n">
-        <v>2.220090670076376e-14</v>
+        <v>0.003925311899599068</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0002185256308768844</v>
+        <v>0.09662151601503315</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9747006471078801</v>
+        <v>0.7222837146184959</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus sp900538365</t>
+          <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43152.fa</t>
+          <t>even_MAG-GUT37976.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.220101554286901e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006405360238914877</v>
+        <v>0.003443144828685967</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220101554286901e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02366158087852193</v>
+        <v>0.02163768243249031</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9695722526935748</v>
+        <v>0.9747006471078801</v>
       </c>
       <c r="G33" t="n">
-        <v>2.220101554286901e-14</v>
+        <v>2.220090670076376e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0003608061889218256</v>
+        <v>0.0002185256308768844</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9695722526935748</v>
+        <v>0.9747006471078801</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1641,32 +1641,32 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43233.fa</t>
+          <t>even_MAG-GUT43152.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.220243356307206e-14</v>
+        <v>2.220101554286901e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004851819669952147</v>
+        <v>0.006405360238914877</v>
       </c>
       <c r="D34" t="n">
-        <v>2.220243356307206e-14</v>
+        <v>2.220101554286901e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0127412258376954</v>
+        <v>0.02366158087852193</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9818767141980422</v>
+        <v>0.9695722526935748</v>
       </c>
       <c r="G34" t="n">
-        <v>2.220243356307206e-14</v>
+        <v>2.220101554286901e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000530240294243581</v>
+        <v>0.0003608061889218256</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9818767141980422</v>
+        <v>0.9695722526935748</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1677,32 +1677,32 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT43233.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.223598107947635e-14</v>
+        <v>2.220243356307206e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009559714227836221</v>
+        <v>0.004851819669952147</v>
       </c>
       <c r="D35" t="n">
-        <v>2.223715238597205e-14</v>
+        <v>2.220243356307206e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02037001123938688</v>
+        <v>0.0127412258376954</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9690635689849595</v>
+        <v>0.9818767141980422</v>
       </c>
       <c r="G35" t="n">
-        <v>2.223715238597204e-14</v>
+        <v>2.220243356307206e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001006705547750707</v>
+        <v>0.000530240294243581</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9690635689849595</v>
+        <v>0.9818767141980422</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1713,32 +1713,32 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43329.fa</t>
+          <t>even_MAG-GUT43248.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.219981864114695e-14</v>
+        <v>2.223598107947635e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001335227239004749</v>
+        <v>0.009559714227836221</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219981864114695e-14</v>
+        <v>2.223715238597205e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01446593350809303</v>
+        <v>0.02037001123938688</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9839483240928059</v>
+        <v>0.9690635689849595</v>
       </c>
       <c r="G36" t="n">
-        <v>2.219981864114695e-14</v>
+        <v>2.223715238597204e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0002505151600297214</v>
+        <v>0.001006705547750707</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9839483240928059</v>
+        <v>0.9690635689849595</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1749,32 +1749,32 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43835.fa</t>
+          <t>even_MAG-GUT43329.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.489185204905789e-14</v>
+        <v>2.219981864114695e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004877751042243945</v>
+        <v>0.001335227239004749</v>
       </c>
       <c r="D37" t="n">
-        <v>3.782591684322622e-14</v>
+        <v>2.219981864114695e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0229812018940764</v>
+        <v>0.01446593350809303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9711169661383312</v>
+        <v>0.9839483240928059</v>
       </c>
       <c r="G37" t="n">
-        <v>3.782591684322621e-14</v>
+        <v>2.219981864114695e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001024080925237835</v>
+        <v>0.0002505151600297214</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9711169661383312</v>
+        <v>0.9839483240928059</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1785,32 +1785,32 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45903.fa</t>
+          <t>even_MAG-GUT43835.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.220318412683416e-14</v>
+        <v>3.489185204905789e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008070270045750767</v>
+        <v>0.004877751042243945</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220318412683416e-14</v>
+        <v>3.782591684322622e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01641606545305611</v>
+        <v>0.0229812018940764</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9750776119813376</v>
+        <v>0.9711169661383312</v>
       </c>
       <c r="G38" t="n">
-        <v>2.220318412683416e-14</v>
+        <v>3.782591684322621e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.000436052519788984</v>
+        <v>0.001024080925237835</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9750776119813376</v>
+        <v>0.9711169661383312</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1821,32 +1821,32 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47875.fa</t>
+          <t>even_MAG-GUT45903.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.219993266563285e-14</v>
+        <v>2.220318412683416e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001266984225681697</v>
+        <v>0.008070270045750767</v>
       </c>
       <c r="D39" t="n">
-        <v>2.219993266563285e-14</v>
+        <v>2.220318412683416e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01417193254787557</v>
+        <v>0.01641606545305611</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9843006864238493</v>
+        <v>0.9750776119813376</v>
       </c>
       <c r="G39" t="n">
-        <v>2.219993266563285e-14</v>
+        <v>2.220318412683416e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0002603968025267997</v>
+        <v>0.000436052519788984</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9843006864238493</v>
+        <v>0.9750776119813376</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1857,32 +1857,32 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT47875.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.219993266563285e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002413443770868194</v>
+        <v>0.001266984225681697</v>
       </c>
       <c r="D40" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.219993266563285e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01979645588621258</v>
+        <v>0.01417193254787557</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9775048218346202</v>
+        <v>0.9843006864238493</v>
       </c>
       <c r="G40" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.219993266563285e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002852785082324737</v>
+        <v>0.0002603968025267997</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9775048218346202</v>
+        <v>0.9843006864238493</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1893,32 +1893,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51928.fa</t>
+          <t>even_MAG-GUT51926.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.21992525279744e-14</v>
+        <v>2.219996520688644e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007345623489924445</v>
+        <v>0.002413443770868194</v>
       </c>
       <c r="D41" t="n">
-        <v>2.21992525279744e-14</v>
+        <v>2.219996520688644e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02022949616871176</v>
+        <v>0.01979645588621258</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9719462685771929</v>
+        <v>0.9775048218346202</v>
       </c>
       <c r="G41" t="n">
-        <v>2.21992525279744e-14</v>
+        <v>2.219996520688644e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0004786117641042586</v>
+        <v>0.0002852785082324737</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9719462685771929</v>
+        <v>0.9775048218346202</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1929,32 +1929,32 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5341.fa</t>
+          <t>even_MAG-GUT51928.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.220030494828558e-14</v>
+        <v>2.21992525279744e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001593672476751584</v>
+        <v>0.007345623489924445</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220030494828558e-14</v>
+        <v>2.21992525279744e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01257701633700953</v>
+        <v>0.02022949616871176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.985139763716802</v>
+        <v>0.9719462685771929</v>
       </c>
       <c r="G42" t="n">
-        <v>2.220030494828558e-14</v>
+        <v>2.21992525279744e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0006895474693704227</v>
+        <v>0.0004786117641042586</v>
       </c>
       <c r="I42" t="n">
-        <v>0.985139763716802</v>
+        <v>0.9719462685771929</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1965,32 +1965,32 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56559.fa</t>
+          <t>even_MAG-GUT5341.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.34842173326061e-14</v>
+        <v>2.220030494828558e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01228591862851608</v>
+        <v>0.001593672476751584</v>
       </c>
       <c r="D43" t="n">
-        <v>2.369840847566582e-14</v>
+        <v>2.220030494828558e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02102382493445164</v>
+        <v>0.01257701633700953</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9657832257399143</v>
+        <v>0.985139763716802</v>
       </c>
       <c r="G43" t="n">
-        <v>2.369840847566583e-14</v>
+        <v>2.220030494828558e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0009070306970472107</v>
+        <v>0.0006895474693704227</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9657832257399143</v>
+        <v>0.985139763716802</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2001,32 +2001,32 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56604.fa</t>
+          <t>even_MAG-GUT56559.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.478907024030389e-14</v>
+        <v>2.34842173326061e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009049344114389788</v>
+        <v>0.01228591862851608</v>
       </c>
       <c r="D44" t="n">
-        <v>2.52613931172995e-14</v>
+        <v>2.369840847566582e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02186026630322489</v>
+        <v>0.02102382493445164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9681234117006633</v>
+        <v>0.9657832257399143</v>
       </c>
       <c r="G44" t="n">
-        <v>2.526139311729949e-14</v>
+        <v>2.369840847566583e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0009669778816466281</v>
+        <v>0.0009070306970472107</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9681234117006633</v>
+        <v>0.9657832257399143</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2037,32 +2037,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT56604.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.220207847103879e-14</v>
+        <v>2.478907024030389e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.003505240605648752</v>
+        <v>0.009049344114389788</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220207847103879e-14</v>
+        <v>2.52613931172995e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0110899516302627</v>
+        <v>0.02186026630322489</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9848224350880838</v>
+        <v>0.9681234117006633</v>
       </c>
       <c r="G45" t="n">
-        <v>2.220207847103879e-14</v>
+        <v>2.526139311729949e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0005823726759382069</v>
+        <v>0.0009669778816466281</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9848224350880838</v>
+        <v>0.9681234117006633</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2073,32 +2073,32 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57066.fa</t>
+          <t>even_MAG-GUT5676.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.220063016543922e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004327754145683351</v>
+        <v>0.003505240605648752</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220063016543922e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02184793124406918</v>
+        <v>0.0110899516302627</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9730567878079351</v>
+        <v>0.9848224350880838</v>
       </c>
       <c r="G46" t="n">
-        <v>2.220063016543922e-14</v>
+        <v>2.220207847103879e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0007675268022455613</v>
+        <v>0.0005823726759382069</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9730567878079351</v>
+        <v>0.9848224350880838</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2109,32 +2109,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57190.fa</t>
+          <t>even_MAG-GUT57066.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.219937820563835e-14</v>
+        <v>2.220063016543922e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01175768445366516</v>
+        <v>0.004327754145683351</v>
       </c>
       <c r="D47" t="n">
-        <v>2.219937820563835e-14</v>
+        <v>2.220063016543922e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03231951153702491</v>
+        <v>0.02184793124406918</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9540201755234824</v>
+        <v>0.9730567878079351</v>
       </c>
       <c r="G47" t="n">
-        <v>2.219937820563835e-14</v>
+        <v>2.220063016543922e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001902628485760997</v>
+        <v>0.0007675268022455613</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9540201755234824</v>
+        <v>0.9730567878079351</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2145,32 +2145,32 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57346.fa</t>
+          <t>even_MAG-GUT57190.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.478907024030389e-14</v>
+        <v>2.219937820563835e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.009049344114389788</v>
+        <v>0.01175768445366516</v>
       </c>
       <c r="D48" t="n">
-        <v>2.52613931172995e-14</v>
+        <v>2.219937820563835e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02186026630322489</v>
+        <v>0.03231951153702491</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9681234117006633</v>
+        <v>0.9540201755234824</v>
       </c>
       <c r="G48" t="n">
-        <v>2.526139311729949e-14</v>
+        <v>2.219937820563835e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0009669778816466281</v>
+        <v>0.001902628485760997</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9681234117006633</v>
+        <v>0.9540201755234824</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2181,32 +2181,32 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57398.fa</t>
+          <t>even_MAG-GUT57346.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.220072761291674e-14</v>
+        <v>2.478907024030389e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006366560710251988</v>
+        <v>0.009049344114389788</v>
       </c>
       <c r="D49" t="n">
-        <v>2.220072761291674e-14</v>
+        <v>2.52613931172995e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02278156324921612</v>
+        <v>0.02186026630322489</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9700484936649092</v>
+        <v>0.9681234117006633</v>
       </c>
       <c r="G49" t="n">
-        <v>2.220072761291674e-14</v>
+        <v>2.526139311729949e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0008033823755562131</v>
+        <v>0.0009669778816466281</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9700484936649092</v>
+        <v>0.9681234117006633</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2217,32 +2217,32 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57498.fa</t>
+          <t>even_MAG-GUT57398.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006246095237989659</v>
+        <v>0.006366560710251988</v>
       </c>
       <c r="D50" t="n">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01284728863939436</v>
+        <v>0.02278156324921612</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9803610398144311</v>
+        <v>0.9700484936649092</v>
       </c>
       <c r="G50" t="n">
-        <v>2.220327848975352e-14</v>
+        <v>2.220072761291674e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0005455763081182627</v>
+        <v>0.0008033823755562131</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9803610398144311</v>
+        <v>0.9700484936649092</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2253,32 +2253,32 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57542.fa</t>
+          <t>even_MAG-GUT57498.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02439971413211852</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01038194566836336</v>
+        <v>0.006246095237989659</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002459556277635874</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02136216024110646</v>
+        <v>0.01284728863939436</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9360268484255728</v>
+        <v>0.9803610398144311</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002459556277636157</v>
+        <v>2.220327848975352e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002910218977566846</v>
+        <v>0.0005455763081182627</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9360268484255728</v>
+        <v>0.9803610398144311</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2289,32 +2289,32 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57592.fa</t>
+          <t>even_MAG-GUT57542.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0293250679315959</v>
+        <v>0.02439971413211852</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01286487443174332</v>
+        <v>0.01038194566836336</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002727914878525899</v>
+        <v>0.002459556277635874</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01829696591512219</v>
+        <v>0.02136216024110646</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9306456214199144</v>
+        <v>0.9360268484255728</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002727914878525898</v>
+        <v>0.002459556277636157</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003411640544572338</v>
+        <v>0.002910218977566846</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9306456214199144</v>
+        <v>0.9360268484255728</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2325,32 +2325,32 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57771.fa</t>
+          <t>even_MAG-GUT57592.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.220138500673012e-14</v>
+        <v>0.0293250679315959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003333568953359771</v>
+        <v>0.01286487443174332</v>
       </c>
       <c r="D53" t="n">
-        <v>2.220138500673012e-14</v>
+        <v>0.002727914878525899</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01536231515556901</v>
+        <v>0.01829696591512219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9808709989400514</v>
+        <v>0.9306456214199144</v>
       </c>
       <c r="G53" t="n">
-        <v>2.220138500673012e-14</v>
+        <v>0.002727914878525898</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000433116950953153</v>
+        <v>0.003411640544572338</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9808709989400514</v>
+        <v>0.9306456214199144</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2361,32 +2361,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57988.fa</t>
+          <t>even_MAG-GUT57771.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.680085929995934e-14</v>
+        <v>2.220138500673012e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005508929573127271</v>
+        <v>0.003333568953359771</v>
       </c>
       <c r="D54" t="n">
-        <v>2.769394937948694e-14</v>
+        <v>2.220138500673012e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01877754554021699</v>
+        <v>0.01536231515556901</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9752332400655636</v>
+        <v>0.9808709989400514</v>
       </c>
       <c r="G54" t="n">
-        <v>2.769394937948693e-14</v>
+        <v>2.220138500673012e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0004802848210100345</v>
+        <v>0.000433116950953153</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9752332400655636</v>
+        <v>0.9808709989400514</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2397,32 +2397,32 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58133.fa</t>
+          <t>even_MAG-GUT57988.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.220442140887384e-14</v>
+        <v>2.680085929995934e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002630605674639652</v>
+        <v>0.005508929573127271</v>
       </c>
       <c r="D55" t="n">
-        <v>2.220442140887384e-14</v>
+        <v>2.769394937948694e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02209617766548086</v>
+        <v>0.01877754554021699</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9746502230066568</v>
+        <v>0.9752332400655636</v>
       </c>
       <c r="G55" t="n">
-        <v>2.220442140887384e-14</v>
+        <v>2.769394937948693e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0006229936531561205</v>
+        <v>0.0004802848210100345</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9746502230066568</v>
+        <v>0.9752332400655636</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2433,32 +2433,32 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58310.fa</t>
+          <t>even_MAG-GUT58133.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.220202905535036e-14</v>
+        <v>2.220442140887384e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003922945249139415</v>
+        <v>0.002630605674639652</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220202905535036e-14</v>
+        <v>2.220442140887384e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01199588353676961</v>
+        <v>0.02209617766548086</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9834433258757975</v>
+        <v>0.9746502230066568</v>
       </c>
       <c r="G56" t="n">
-        <v>2.220202905535036e-14</v>
+        <v>2.220442140887384e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0006378453382269505</v>
+        <v>0.0006229936531561205</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9834433258757975</v>
+        <v>0.9746502230066568</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2469,32 +2469,32 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58672.fa</t>
+          <t>even_MAG-GUT58310.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0835242754997243</v>
+        <v>2.220202905535036e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01121096154171723</v>
+        <v>0.003922945249139415</v>
       </c>
       <c r="D57" t="n">
-        <v>0.003847710013233696</v>
+        <v>2.220202905535036e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06037138689648414</v>
+        <v>0.01199588353676961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8330320295283858</v>
+        <v>0.9834433258757975</v>
       </c>
       <c r="G57" t="n">
-        <v>0.003847710013233691</v>
+        <v>2.220202905535036e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00416592650722099</v>
+        <v>0.0006378453382269505</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8330320295283858</v>
+        <v>0.9834433258757975</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2505,32 +2505,32 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59502.fa</t>
+          <t>even_MAG-GUT58672.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.782487501723563e-14</v>
+        <v>0.0835242754997243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01267269007666052</v>
+        <v>0.01121096154171723</v>
       </c>
       <c r="D58" t="n">
-        <v>2.896844228003203e-14</v>
+        <v>0.003847710013233696</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03140002524730298</v>
+        <v>0.06037138689648414</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9548883219468564</v>
+        <v>0.8330320295283858</v>
       </c>
       <c r="G58" t="n">
-        <v>2.896844228003205e-14</v>
+        <v>0.003847710013233691</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001038962729094281</v>
+        <v>0.00416592650722099</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9548883219468564</v>
+        <v>0.8330320295283858</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2541,32 +2541,32 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59576.fa</t>
+          <t>even_MAG-GUT59502.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.220202899220772e-14</v>
+        <v>2.782487501723563e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.006137407140526939</v>
+        <v>0.01267269007666052</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220202899220772e-14</v>
+        <v>2.896844228003203e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01708589769963594</v>
+        <v>0.03140002524730298</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9760561538222627</v>
+        <v>0.9548883219468564</v>
       </c>
       <c r="G59" t="n">
-        <v>2.220202899220772e-14</v>
+        <v>2.896844228003205e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0007205413375077362</v>
+        <v>0.001038962729094281</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9760561538222627</v>
+        <v>0.9548883219468564</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2577,32 +2577,32 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5959.fa</t>
+          <t>even_MAG-GUT59576.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.139638557574278e-14</v>
+        <v>2.220202899220772e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01030067653557411</v>
+        <v>0.006137407140526939</v>
       </c>
       <c r="D60" t="n">
-        <v>3.34066399958856e-14</v>
+        <v>2.220202899220772e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03193874582058047</v>
+        <v>0.01708589769963594</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9571046800174505</v>
+        <v>0.9760561538222627</v>
       </c>
       <c r="G60" t="n">
-        <v>3.34066399958856e-14</v>
+        <v>2.220202899220772e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0006558976262967201</v>
+        <v>0.0007205413375077362</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9571046800174505</v>
+        <v>0.9760561538222627</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2613,32 +2613,32 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59626.fa</t>
+          <t>even_MAG-GUT5959.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.34842173326061e-14</v>
+        <v>3.139638557574278e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01228591862851608</v>
+        <v>0.01030067653557411</v>
       </c>
       <c r="D61" t="n">
-        <v>2.369840847566582e-14</v>
+        <v>3.34066399958856e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02102382493445164</v>
+        <v>0.03193874582058047</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9657832257399143</v>
+        <v>0.9571046800174505</v>
       </c>
       <c r="G61" t="n">
-        <v>2.369840847566583e-14</v>
+        <v>3.34066399958856e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0009070306970472107</v>
+        <v>0.0006558976262967201</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9657832257399143</v>
+        <v>0.9571046800174505</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2649,32 +2649,32 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60077.fa</t>
+          <t>even_MAG-GUT59626.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.219993907954429e-14</v>
+        <v>2.34842173326061e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>0.007267495031603382</v>
+        <v>0.01228591862851608</v>
       </c>
       <c r="D62" t="n">
-        <v>2.219993907954429e-14</v>
+        <v>2.369840847566582e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01567627062974995</v>
+        <v>0.02102382493445164</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9761661282407219</v>
+        <v>0.9657832257399143</v>
       </c>
       <c r="G62" t="n">
-        <v>2.219993907954429e-14</v>
+        <v>2.369840847566583e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0008901060978581056</v>
+        <v>0.0009070306970472107</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9761661282407219</v>
+        <v>0.9657832257399143</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2685,32 +2685,32 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60123.fa</t>
+          <t>even_MAG-GUT60077.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.220203701461223e-14</v>
+        <v>2.219993907954429e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003313216495368074</v>
+        <v>0.007267495031603382</v>
       </c>
       <c r="D63" t="n">
-        <v>2.220203701461223e-14</v>
+        <v>2.219993907954429e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.009697492465441647</v>
+        <v>0.01567627062974995</v>
       </c>
       <c r="F63" t="n">
-        <v>0.986391617432379</v>
+        <v>0.9761661282407219</v>
       </c>
       <c r="G63" t="n">
-        <v>2.220203701461223e-14</v>
+        <v>2.219993907954429e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0005976736067446993</v>
+        <v>0.0008901060978581056</v>
       </c>
       <c r="I63" t="n">
-        <v>0.986391617432379</v>
+        <v>0.9761661282407219</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2721,32 +2721,32 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60157.fa</t>
+          <t>even_MAG-GUT60123.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.220184829583635e-14</v>
+        <v>2.220203701461223e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.006103795557820754</v>
+        <v>0.003313216495368074</v>
       </c>
       <c r="D64" t="n">
-        <v>2.220184829583635e-14</v>
+        <v>2.220203701461223e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01239849157182987</v>
+        <v>0.009697492465441647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9806777328022478</v>
+        <v>0.986391617432379</v>
       </c>
       <c r="G64" t="n">
-        <v>2.220184829583635e-14</v>
+        <v>2.220203701461223e-14</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0008199800680348517</v>
+        <v>0.0005976736067446993</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9806777328022478</v>
+        <v>0.986391617432379</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2757,32 +2757,32 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60320.fa</t>
+          <t>even_MAG-GUT60157.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02646704846062258</v>
+        <v>2.220184829583635e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.004488462165718047</v>
+        <v>0.006103795557820754</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002751381342433355</v>
+        <v>2.220184829583635e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0247509978259332</v>
+        <v>0.01239849157182987</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9357153623371588</v>
+        <v>0.9806777328022478</v>
       </c>
       <c r="G65" t="n">
-        <v>0.002751381342433355</v>
+        <v>2.220184829583635e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.003075366525700638</v>
+        <v>0.0008199800680348517</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9357153623371588</v>
+        <v>0.9806777328022478</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2793,32 +2793,32 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60370.fa</t>
+          <t>even_MAG-GUT60320.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.219975452813986e-14</v>
+        <v>0.02646704846062258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001822856286728731</v>
+        <v>0.004488462165718047</v>
       </c>
       <c r="D66" t="n">
-        <v>2.219975452813986e-14</v>
+        <v>0.002751381342433355</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01219593196128347</v>
+        <v>0.0247509978259332</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9857027285100175</v>
+        <v>0.9357153623371588</v>
       </c>
       <c r="G66" t="n">
-        <v>2.219975452813986e-14</v>
+        <v>0.002751381342433355</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0002784832419036869</v>
+        <v>0.003075366525700638</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9857027285100175</v>
+        <v>0.9357153623371588</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2829,32 +2829,32 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60466.fa</t>
+          <t>even_MAG-GUT60370.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.220094754025731e-14</v>
+        <v>2.219975452813986e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004464113142885853</v>
+        <v>0.001822856286728731</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220094754025731e-14</v>
+        <v>2.219975452813986e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03751848127576073</v>
+        <v>0.01219593196128347</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9574036767148779</v>
+        <v>0.9857027285100175</v>
       </c>
       <c r="G67" t="n">
-        <v>2.220094754025731e-14</v>
+        <v>2.219975452813986e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0006137288664090399</v>
+        <v>0.0002784832419036869</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9574036767148779</v>
+        <v>0.9857027285100175</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2865,32 +2865,32 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60605.fa</t>
+          <t>even_MAG-GUT60466.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.72293277933969e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00381939290048926</v>
+        <v>0.004464113142885853</v>
       </c>
       <c r="D68" t="n">
-        <v>2.823098377454866e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03411766143111612</v>
+        <v>0.03751848127576073</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9616475241319858</v>
+        <v>0.9574036767148779</v>
       </c>
       <c r="G68" t="n">
-        <v>2.823098377454831e-14</v>
+        <v>2.220094754025731e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0004154215363251212</v>
+        <v>0.0006137288664090399</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9616475241319858</v>
+        <v>0.9574036767148779</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2901,32 +2901,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60882.fa</t>
+          <t>even_MAG-GUT60605.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.223628585335311e-14</v>
+        <v>2.72293277933969e-14</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004620621397949703</v>
+        <v>0.00381939290048926</v>
       </c>
       <c r="D69" t="n">
-        <v>2.223746508428275e-14</v>
+        <v>2.823098377454866e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02007917009970286</v>
+        <v>0.03411766143111612</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9748223329070552</v>
+        <v>0.9616475241319858</v>
       </c>
       <c r="G69" t="n">
-        <v>2.223746508428275e-14</v>
+        <v>2.823098377454831e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0004778755952254679</v>
+        <v>0.0004154215363251212</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9748223329070552</v>
+        <v>0.9616475241319858</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2937,32 +2937,32 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60999.fa</t>
+          <t>even_MAG-GUT60882.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.903023497458041e-14</v>
+        <v>2.223628585335311e-14</v>
       </c>
       <c r="C70" t="n">
-        <v>0.008748009894926084</v>
+        <v>0.004620621397949703</v>
       </c>
       <c r="D70" t="n">
-        <v>3.045013182582122e-14</v>
+        <v>2.223746508428275e-14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02337672749362335</v>
+        <v>0.02007917009970286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.966915726824416</v>
+        <v>0.9748223329070552</v>
       </c>
       <c r="G70" t="n">
-        <v>3.045013182582123e-14</v>
+        <v>2.223746508428275e-14</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0009595357869446652</v>
+        <v>0.0004778755952254679</v>
       </c>
       <c r="I70" t="n">
-        <v>0.966915726824416</v>
+        <v>0.9748223329070552</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2973,32 +2973,32 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61376.fa</t>
+          <t>even_MAG-GUT60999.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.289206778876554e-14</v>
+        <v>2.903023497458041e-14</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003144770522068876</v>
+        <v>0.008748009894926084</v>
       </c>
       <c r="D71" t="n">
-        <v>2.299227712089606e-14</v>
+        <v>3.045013182582122e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0155074768940009</v>
+        <v>0.02337672749362335</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9810521625866251</v>
+        <v>0.966915726824416</v>
       </c>
       <c r="G71" t="n">
-        <v>2.299227712089623e-14</v>
+        <v>3.045013182582123e-14</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0002955899972362766</v>
+        <v>0.0009595357869446652</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9810521625866251</v>
+        <v>0.966915726824416</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3009,32 +3009,32 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61623.fa</t>
+          <t>even_MAG-GUT61376.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.220129627398592e-14</v>
+        <v>2.289206778876554e-14</v>
       </c>
       <c r="C72" t="n">
-        <v>0.003853958323423786</v>
+        <v>0.003144770522068876</v>
       </c>
       <c r="D72" t="n">
-        <v>2.220129627398592e-14</v>
+        <v>2.299227712089606e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01573689803343874</v>
+        <v>0.0155074768940009</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9795013881300088</v>
+        <v>0.9810521625866251</v>
       </c>
       <c r="G72" t="n">
-        <v>2.220129627398592e-14</v>
+        <v>2.299227712089623e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0009077555130621504</v>
+        <v>0.0002955899972362766</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9795013881300088</v>
+        <v>0.9810521625866251</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3045,32 +3045,32 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61658.fa</t>
+          <t>even_MAG-GUT61623.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.220257316341823e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="C73" t="n">
-        <v>0.005667387142196315</v>
+        <v>0.003853958323423786</v>
       </c>
       <c r="D73" t="n">
-        <v>2.220257316341823e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01416572397236715</v>
+        <v>0.01573689803343874</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9792275921342812</v>
+        <v>0.9795013881300088</v>
       </c>
       <c r="G73" t="n">
-        <v>2.220257316341823e-14</v>
+        <v>2.220129627398592e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0009392967510886145</v>
+        <v>0.0009077555130621504</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9792275921342812</v>
+        <v>0.9795013881300088</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3081,32 +3081,32 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61937.fa</t>
+          <t>even_MAG-GUT61658.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.219986474035614e-14</v>
+        <v>2.220257316341823e-14</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001785672287205951</v>
+        <v>0.005667387142196315</v>
       </c>
       <c r="D74" t="n">
-        <v>2.219986474035614e-14</v>
+        <v>2.220257316341823e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0177349058627771</v>
+        <v>0.01416572397236715</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9801780523138428</v>
+        <v>0.9792275921342812</v>
       </c>
       <c r="G74" t="n">
-        <v>2.219986474035614e-14</v>
+        <v>2.220257316341823e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0003013695361075982</v>
+        <v>0.0009392967510886145</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9801780523138428</v>
+        <v>0.9792275921342812</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3117,32 +3117,32 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62054.fa</t>
+          <t>even_MAG-GUT61937.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2.312254869410181e-14</v>
+        <v>2.219986474035614e-14</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004448152143270066</v>
+        <v>0.001785672287205951</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32621418857526e-14</v>
+        <v>2.219986474035614e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01299663532919975</v>
+        <v>0.0177349058627771</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9819146778668856</v>
+        <v>0.9801780523138428</v>
       </c>
       <c r="G75" t="n">
-        <v>2.326214188575258e-14</v>
+        <v>2.219986474035614e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0006405346605749993</v>
+        <v>0.0003013695361075982</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9819146778668856</v>
+        <v>0.9801780523138428</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3153,32 +3153,32 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62117.fa</t>
+          <t>even_MAG-GUT62054.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.220208771891261e-14</v>
+        <v>2.312254869410181e-14</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004814789435745793</v>
+        <v>0.004448152143270066</v>
       </c>
       <c r="D76" t="n">
-        <v>2.220208771891261e-14</v>
+        <v>2.32621418857526e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01511209802619886</v>
+        <v>0.01299663532919975</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9796474217908117</v>
+        <v>0.9819146778668856</v>
       </c>
       <c r="G76" t="n">
-        <v>2.220208771891261e-14</v>
+        <v>2.326214188575258e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0004256907471769916</v>
+        <v>0.0006405346605749993</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9796474217908117</v>
+        <v>0.9819146778668856</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3189,32 +3189,32 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62444.fa</t>
+          <t>even_MAG-GUT62117.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.220206065904069e-14</v>
+        <v>2.220208771891261e-14</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00332988101598405</v>
+        <v>0.004814789435745793</v>
       </c>
       <c r="D77" t="n">
-        <v>2.220206065904069e-14</v>
+        <v>2.220208771891261e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.008615115936606977</v>
+        <v>0.01511209802619886</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9875094625922076</v>
+        <v>0.9796474217908117</v>
       </c>
       <c r="G77" t="n">
-        <v>2.220206065904069e-14</v>
+        <v>2.220208771891261e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0005455404551347348</v>
+        <v>0.0004256907471769916</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9875094625922076</v>
+        <v>0.9796474217908117</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3225,32 +3225,32 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62509.fa</t>
+          <t>even_MAG-GUT62444.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.220164827142804e-14</v>
+        <v>2.220206065904069e-14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006142778523043095</v>
+        <v>0.00332988101598405</v>
       </c>
       <c r="D78" t="n">
-        <v>2.220164827142804e-14</v>
+        <v>2.220206065904069e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0159014418172661</v>
+        <v>0.008615115936606977</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9772170517641336</v>
+        <v>0.9875094625922076</v>
       </c>
       <c r="G78" t="n">
-        <v>2.220164827142804e-14</v>
+        <v>2.220206065904069e-14</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0007387278954905836</v>
+        <v>0.0005455404551347348</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9772170517641336</v>
+        <v>0.9875094625922076</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3261,32 +3261,32 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62666.fa</t>
+          <t>even_MAG-GUT62509.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.220050038527878e-14</v>
+        <v>2.220164827142804e-14</v>
       </c>
       <c r="C79" t="n">
-        <v>0.002155740148709305</v>
+        <v>0.006142778523043095</v>
       </c>
       <c r="D79" t="n">
-        <v>2.220050038527878e-14</v>
+        <v>2.220164827142804e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0152023404956</v>
+        <v>0.0159014418172661</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9823381864247821</v>
+        <v>0.9772170517641336</v>
       </c>
       <c r="G79" t="n">
-        <v>2.220050038527878e-14</v>
+        <v>2.220164827142804e-14</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0003037329308421476</v>
+        <v>0.0007387278954905836</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9823381864247821</v>
+        <v>0.9772170517641336</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3297,32 +3297,32 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6679.fa</t>
+          <t>even_MAG-GUT62666.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.219904065366512e-14</v>
+        <v>2.220050038527878e-14</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0005574198648609288</v>
+        <v>0.002155740148709305</v>
       </c>
       <c r="D80" t="n">
-        <v>2.219904065366512e-14</v>
+        <v>2.220050038527878e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.008956138459092418</v>
+        <v>0.0152023404956</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9901778066115521</v>
+        <v>0.9823381864247821</v>
       </c>
       <c r="G80" t="n">
-        <v>2.219904065366512e-14</v>
+        <v>2.220050038527878e-14</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0003086350644278864</v>
+        <v>0.0003037329308421476</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9901778066115521</v>
+        <v>0.9823381864247821</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3333,32 +3333,32 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69771.fa</t>
+          <t>even_MAG-GUT6679.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.220215056977576e-14</v>
+        <v>2.219904065366512e-14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.003427908642437191</v>
+        <v>0.0005574198648609288</v>
       </c>
       <c r="D81" t="n">
-        <v>2.220215056977576e-14</v>
+        <v>2.219904065366512e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01378529816409982</v>
+        <v>0.008956138459092418</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9808267847788673</v>
+        <v>0.9901778066115521</v>
       </c>
       <c r="G81" t="n">
-        <v>2.220215056977576e-14</v>
+        <v>2.219904065366512e-14</v>
       </c>
       <c r="H81" t="n">
-        <v>0.001960008414528959</v>
+        <v>0.0003086350644278864</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9808267847788673</v>
+        <v>0.9901778066115521</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3369,32 +3369,32 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7031.fa</t>
+          <t>even_MAG-GUT69771.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002665738548518312</v>
+        <v>0.003427908642437191</v>
       </c>
       <c r="D82" t="n">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.009142738714741524</v>
+        <v>0.01378529816409982</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9871526914331981</v>
+        <v>0.9808267847788673</v>
       </c>
       <c r="G82" t="n">
-        <v>2.220191305139429e-14</v>
+        <v>2.220215056977576e-14</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001038831303475493</v>
+        <v>0.001960008414528959</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9871526914331981</v>
+        <v>0.9808267847788673</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3405,32 +3405,32 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7040.fa</t>
+          <t>even_MAG-GUT7031.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001177012785102253</v>
+        <v>0.002665738548518312</v>
       </c>
       <c r="D83" t="n">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01225309179803293</v>
+        <v>0.009142738714741524</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9848914803716214</v>
+        <v>0.9871526914331981</v>
       </c>
       <c r="G83" t="n">
-        <v>2.220087677823912e-14</v>
+        <v>2.220191305139429e-14</v>
       </c>
       <c r="H83" t="n">
-        <v>0.001678415045176777</v>
+        <v>0.001038831303475493</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9848914803716214</v>
+        <v>0.9871526914331981</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3441,32 +3441,32 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72119.fa</t>
+          <t>even_MAG-GUT7040.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.322888641445932e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="C84" t="n">
-        <v>0.009985376513631279</v>
+        <v>0.001177012785102253</v>
       </c>
       <c r="D84" t="n">
-        <v>2.339291121100367e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01778327167570015</v>
+        <v>0.01225309179803293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9712308326339824</v>
+        <v>0.9848914803716214</v>
       </c>
       <c r="G84" t="n">
-        <v>2.339291121100366e-14</v>
+        <v>2.220087677823912e-14</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001000519176616193</v>
+        <v>0.001678415045176777</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9712308326339824</v>
+        <v>0.9848914803716214</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3477,32 +3477,32 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72127.fa</t>
+          <t>even_MAG-GUT72119.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.220180953335368e-14</v>
+        <v>2.322888641445932e-14</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005778107070961823</v>
+        <v>0.009985376513631279</v>
       </c>
       <c r="D85" t="n">
-        <v>2.220180953335368e-14</v>
+        <v>2.339291121100367e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01420786011410487</v>
+        <v>0.01778327167570015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9794568809377403</v>
+        <v>0.9712308326339824</v>
       </c>
       <c r="G85" t="n">
-        <v>2.220180953335368e-14</v>
+        <v>2.339291121100366e-14</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0005571518771264369</v>
+        <v>0.001000519176616193</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9794568809377403</v>
+        <v>0.9712308326339824</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3513,32 +3513,32 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74329.fa</t>
+          <t>even_MAG-GUT72127.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.22002919204275e-14</v>
+        <v>2.220180953335368e-14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.001719588946905957</v>
+        <v>0.005778107070961823</v>
       </c>
       <c r="D86" t="n">
-        <v>2.22002919204275e-14</v>
+        <v>2.220180953335368e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01269908418421954</v>
+        <v>0.01420786011410487</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9852974372784296</v>
+        <v>0.9794568809377403</v>
       </c>
       <c r="G86" t="n">
-        <v>2.22002919204275e-14</v>
+        <v>2.220180953335368e-14</v>
       </c>
       <c r="H86" t="n">
-        <v>0.000283889590378413</v>
+        <v>0.0005571518771264369</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9852974372784296</v>
+        <v>0.9794568809377403</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3549,32 +3549,32 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74380.fa</t>
+          <t>even_MAG-GUT74329.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.220078050714494e-14</v>
+        <v>2.22002919204275e-14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.002465749428381247</v>
+        <v>0.001719588946905957</v>
       </c>
       <c r="D87" t="n">
-        <v>2.220078050714494e-14</v>
+        <v>2.22002919204275e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01263629949030124</v>
+        <v>0.01269908418421954</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9845317323193533</v>
+        <v>0.9852974372784296</v>
       </c>
       <c r="G87" t="n">
-        <v>2.220078050714494e-14</v>
+        <v>2.22002919204275e-14</v>
       </c>
       <c r="H87" t="n">
-        <v>0.000366218761897647</v>
+        <v>0.000283889590378413</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9845317323193533</v>
+        <v>0.9852974372784296</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3585,32 +3585,32 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75402.fa</t>
+          <t>even_MAG-GUT74380.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.220014650189546e-14</v>
+        <v>2.220078050714494e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001915241463920778</v>
+        <v>0.002465749428381247</v>
       </c>
       <c r="D88" t="n">
-        <v>2.220014650189546e-14</v>
+        <v>2.220078050714494e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01611483148602437</v>
+        <v>0.01263629949030124</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9817266922495205</v>
+        <v>0.9845317323193533</v>
       </c>
       <c r="G88" t="n">
-        <v>2.220014650189546e-14</v>
+        <v>2.220078050714494e-14</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0002432348004679127</v>
+        <v>0.000366218761897647</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9817266922495205</v>
+        <v>0.9845317323193533</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3621,32 +3621,32 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75430.fa</t>
+          <t>even_MAG-GUT75402.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.220051091314279e-14</v>
+        <v>2.220014650189546e-14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004459000156910028</v>
+        <v>0.001915241463920778</v>
       </c>
       <c r="D89" t="n">
-        <v>2.220051091314279e-14</v>
+        <v>2.220014650189546e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02202392801830109</v>
+        <v>0.01611483148602437</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9729514637151436</v>
+        <v>0.9817266922495205</v>
       </c>
       <c r="G89" t="n">
-        <v>2.220051091314279e-14</v>
+        <v>2.220014650189546e-14</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0005656081095786338</v>
+        <v>0.0002432348004679127</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9729514637151436</v>
+        <v>0.9817266922495205</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3657,32 +3657,32 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75522.fa</t>
+          <t>even_MAG-GUT75430.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.220169085959e-14</v>
+        <v>2.220051091314279e-14</v>
       </c>
       <c r="C90" t="n">
-        <v>0.002039015323695507</v>
+        <v>0.004459000156910028</v>
       </c>
       <c r="D90" t="n">
-        <v>2.220169085959e-14</v>
+        <v>2.220051091314279e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02232083345502229</v>
+        <v>0.02202392801830109</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9752512828586183</v>
+        <v>0.9729514637151436</v>
       </c>
       <c r="G90" t="n">
-        <v>2.220169085959e-14</v>
+        <v>2.220051091314279e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0003888683625972751</v>
+        <v>0.0005656081095786338</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9752512828586183</v>
+        <v>0.9729514637151436</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3693,32 +3693,32 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79350.fa</t>
+          <t>even_MAG-GUT75522.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.2200700189802e-14</v>
+        <v>2.220169085959e-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01067483115404288</v>
+        <v>0.002039015323695507</v>
       </c>
       <c r="D91" t="n">
-        <v>2.2200700189802e-14</v>
+        <v>2.220169085959e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02626372511317599</v>
+        <v>0.02232083345502229</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9621147329501318</v>
+        <v>0.9752512828586183</v>
       </c>
       <c r="G91" t="n">
-        <v>2.2200700189802e-14</v>
+        <v>2.220169085959e-14</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0009467107825827043</v>
+        <v>0.0003888683625972751</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9621147329501318</v>
+        <v>0.9752512828586183</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3729,32 +3729,32 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT79350.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>2.2200700189802e-14</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0009281201057588577</v>
+        <v>0.01067483115404288</v>
       </c>
       <c r="D92" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>2.2200700189802e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.02426798977625946</v>
+        <v>0.02626372511317599</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9739050093624446</v>
+        <v>0.9621147329501318</v>
       </c>
       <c r="G92" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>2.2200700189802e-14</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0008988807554706406</v>
+        <v>0.0009467107825827043</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9739050093624446</v>
+        <v>0.9621147329501318</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3765,32 +3765,32 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT80385.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.219434594740089e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.008312671882814817</v>
+        <v>0.0009281201057588577</v>
       </c>
       <c r="D93" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.219434594740089e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01455771929691877</v>
+        <v>0.02426798977625946</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9764865461442179</v>
+        <v>0.9739050093624446</v>
       </c>
       <c r="G93" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.219434594740089e-14</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0006430626759818892</v>
+        <v>0.0008988807554706406</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9764865461442179</v>
+        <v>0.9739050093624446</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3801,32 +3801,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80718.fa</t>
+          <t>even_MAG-GUT80453.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.219886805475008e-14</v>
+        <v>2.220210169581029e-14</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001039097304583488</v>
+        <v>0.008312671882814817</v>
       </c>
       <c r="D94" t="n">
-        <v>2.219886805475008e-14</v>
+        <v>2.220210169581029e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01220330907060166</v>
+        <v>0.01455771929691877</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9858933010775688</v>
+        <v>0.9764865461442179</v>
       </c>
       <c r="G94" t="n">
-        <v>2.219886805475008e-14</v>
+        <v>2.220210169581029e-14</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0008642925471794911</v>
+        <v>0.0006430626759818892</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9858933010775688</v>
+        <v>0.9764865461442179</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3837,32 +3837,32 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT80718.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.219886805475008e-14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004873881470580442</v>
+        <v>0.001039097304583488</v>
       </c>
       <c r="D95" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.219886805475008e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0174404888227133</v>
+        <v>0.01220330907060166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9772203060304181</v>
+        <v>0.9858933010775688</v>
       </c>
       <c r="G95" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.219886805475008e-14</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0004653236762216279</v>
+        <v>0.0008642925471794911</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9772203060304181</v>
+        <v>0.9858933010775688</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3873,32 +3873,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80816.fa</t>
+          <t>even_MAG-GUT80771.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.220244385139239e-14</v>
+        <v>2.219978435635807e-14</v>
       </c>
       <c r="C96" t="n">
-        <v>0.003501401965352285</v>
+        <v>0.004873881470580442</v>
       </c>
       <c r="D96" t="n">
-        <v>2.220244385139239e-14</v>
+        <v>2.219978435635807e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02397770269395675</v>
+        <v>0.0174404888227133</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9719415479045072</v>
+        <v>0.9772203060304181</v>
       </c>
       <c r="G96" t="n">
-        <v>2.220244385139239e-14</v>
+        <v>2.219978435635807e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0005793474361171752</v>
+        <v>0.0004653236762216279</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9719415479045072</v>
+        <v>0.9772203060304181</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -3909,32 +3909,32 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81679.fa</t>
+          <t>even_MAG-GUT80816.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>2.220244385139239e-14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.002229639948174801</v>
+        <v>0.003501401965352285</v>
       </c>
       <c r="D97" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>2.220244385139239e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01633229387036965</v>
+        <v>0.02397770269395675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9812805856387739</v>
+        <v>0.9719415479045072</v>
       </c>
       <c r="G97" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>2.220244385139239e-14</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0001574805426152047</v>
+        <v>0.0005793474361171752</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9812805856387739</v>
+        <v>0.9719415479045072</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -3945,32 +3945,32 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81926.fa</t>
+          <t>even_MAG-GUT81679.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.220059725988729e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="C98" t="n">
-        <v>0.002168634431733347</v>
+        <v>0.002229639948174801</v>
       </c>
       <c r="D98" t="n">
-        <v>2.220059725988729e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0138030679076911</v>
+        <v>0.01633229387036965</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9837778343009635</v>
+        <v>0.9812805856387739</v>
       </c>
       <c r="G98" t="n">
-        <v>2.220059725988729e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0002504633595453261</v>
+        <v>0.0001574805426152047</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9837778343009635</v>
+        <v>0.9812805856387739</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -3981,32 +3981,32 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT81926.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.412282274901381e-14</v>
+        <v>2.220059725988729e-14</v>
       </c>
       <c r="C99" t="n">
-        <v>0.002588342275035311</v>
+        <v>0.002168634431733347</v>
       </c>
       <c r="D99" t="n">
-        <v>3.686717178754487e-14</v>
+        <v>2.220059725988729e-14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03151355897206982</v>
+        <v>0.0138030679076911</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9653261031544053</v>
+        <v>0.9837778343009635</v>
       </c>
       <c r="G99" t="n">
-        <v>3.686717178754487e-14</v>
+        <v>2.220059725988729e-14</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0005719955983817945</v>
+        <v>0.0002504633595453261</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9653261031544053</v>
+        <v>0.9837778343009635</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4017,32 +4017,32 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81987.fa</t>
+          <t>even_MAG-GUT81946.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>3.412282274901381e-14</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002229639948174801</v>
+        <v>0.002588342275035311</v>
       </c>
       <c r="D100" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>3.686717178754487e-14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01633229387036965</v>
+        <v>0.03151355897206982</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9812805856387739</v>
+        <v>0.9653261031544053</v>
       </c>
       <c r="G100" t="n">
-        <v>2.220002802828264e-14</v>
+        <v>3.686717178754487e-14</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0001574805426152047</v>
+        <v>0.0005719955983817945</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9812805856387739</v>
+        <v>0.9653261031544053</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4053,32 +4053,32 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82039.fa</t>
+          <t>even_MAG-GUT81987.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.220236937601348e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="C101" t="n">
-        <v>0.004797883445563148</v>
+        <v>0.002229639948174801</v>
       </c>
       <c r="D101" t="n">
-        <v>2.220236937601348e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01371675401292586</v>
+        <v>0.01633229387036965</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9797645485294497</v>
+        <v>0.9812805856387739</v>
       </c>
       <c r="G101" t="n">
-        <v>2.220236937601348e-14</v>
+        <v>2.220002802828264e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>0.001720814011994773</v>
+        <v>0.0001574805426152047</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9797645485294497</v>
+        <v>0.9812805856387739</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4089,32 +4089,32 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82105.fa</t>
+          <t>even_MAG-GUT82039.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.02601799152525971</v>
+        <v>2.220236937601348e-14</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01029030285343534</v>
+        <v>0.004797883445563148</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002545894077271725</v>
+        <v>2.220236937601348e-14</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0227673721482775</v>
+        <v>0.01371675401292586</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9327418970404865</v>
+        <v>0.9797645485294497</v>
       </c>
       <c r="G102" t="n">
-        <v>0.002545894077271729</v>
+        <v>2.220236937601348e-14</v>
       </c>
       <c r="H102" t="n">
-        <v>0.003090648277997552</v>
+        <v>0.001720814011994773</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9327418970404865</v>
+        <v>0.9797645485294497</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4125,32 +4125,32 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82160.fa</t>
+          <t>even_MAG-GUT82105.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.220035368490017e-14</v>
+        <v>0.02601799152525971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001798331126337965</v>
+        <v>0.01029030285343534</v>
       </c>
       <c r="D103" t="n">
-        <v>2.220035368490017e-14</v>
+        <v>0.002545894077271725</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01126791579355734</v>
+        <v>0.0227673721482775</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9866512720820285</v>
+        <v>0.9327418970404865</v>
       </c>
       <c r="G103" t="n">
-        <v>2.220035368490017e-14</v>
+        <v>0.002545894077271729</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0002824809980096144</v>
+        <v>0.003090648277997552</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9866512720820285</v>
+        <v>0.9327418970404865</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4161,32 +4161,32 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82436.fa</t>
+          <t>even_MAG-GUT82160.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2137671728587039</v>
+        <v>2.220035368490017e-14</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01000713478091855</v>
+        <v>0.001798331126337965</v>
       </c>
       <c r="D104" t="n">
-        <v>0.004195579139625467</v>
+        <v>2.220035368490017e-14</v>
       </c>
       <c r="E104" t="n">
-        <v>0.04638594608535474</v>
+        <v>0.01126791579355734</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7167052116651447</v>
+        <v>0.9866512720820285</v>
       </c>
       <c r="G104" t="n">
-        <v>0.004195579139625477</v>
+        <v>2.220035368490017e-14</v>
       </c>
       <c r="H104" t="n">
-        <v>0.004743376330627247</v>
+        <v>0.0002824809980096144</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7167052116651447</v>
+        <v>0.9866512720820285</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4197,32 +4197,32 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82468.fa</t>
+          <t>even_MAG-GUT82436.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.442753638680968e-14</v>
+        <v>0.2137671728587039</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01254060192887003</v>
+        <v>0.01000713478091855</v>
       </c>
       <c r="D105" t="n">
-        <v>2.482800904756334e-14</v>
+        <v>0.004195579139625467</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02188898688569975</v>
+        <v>0.04638594608535474</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9644626616934838</v>
+        <v>0.7167052116651447</v>
       </c>
       <c r="G105" t="n">
-        <v>2.482800904756334e-14</v>
+        <v>0.004195579139625477</v>
       </c>
       <c r="H105" t="n">
-        <v>0.001107749491872177</v>
+        <v>0.004743376330627247</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9644626616934838</v>
+        <v>0.7167052116651447</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4233,32 +4233,32 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82509.fa</t>
+          <t>even_MAG-GUT82468.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.410360434814258e-14</v>
+        <v>2.442753638680968e-14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0165820467153005</v>
+        <v>0.01254060192887003</v>
       </c>
       <c r="D106" t="n">
-        <v>3.680256892864293e-14</v>
+        <v>2.482800904756334e-14</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02920217806366763</v>
+        <v>0.02188898688569975</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9524694971143082</v>
+        <v>0.9644626616934838</v>
       </c>
       <c r="G106" t="n">
-        <v>3.680256892864333e-14</v>
+        <v>2.482800904756334e-14</v>
       </c>
       <c r="H106" t="n">
-        <v>0.001746278106615972</v>
+        <v>0.001107749491872177</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9524694971143082</v>
+        <v>0.9644626616934838</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82562.fa</t>
+          <t>even_MAG-GUT82509.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4305,32 +4305,32 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82635.fa</t>
+          <t>even_MAG-GUT82562.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.06393280320880165</v>
+        <v>3.410360434814258e-14</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02062781163884958</v>
+        <v>0.0165820467153005</v>
       </c>
       <c r="D108" t="n">
-        <v>0.003590121561174624</v>
+        <v>3.680256892864293e-14</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03122783714350952</v>
+        <v>0.02920217806366763</v>
       </c>
       <c r="F108" t="n">
-        <v>0.87286004042001</v>
+        <v>0.9524694971143082</v>
       </c>
       <c r="G108" t="n">
-        <v>0.003590121561174626</v>
+        <v>3.680256892864333e-14</v>
       </c>
       <c r="H108" t="n">
-        <v>0.004171264466480033</v>
+        <v>0.001746278106615972</v>
       </c>
       <c r="I108" t="n">
-        <v>0.87286004042001</v>
+        <v>0.9524694971143082</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4341,32 +4341,32 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82654.fa</t>
+          <t>even_MAG-GUT82635.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.065411415390658e-14</v>
+        <v>0.06393280320880165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01419112793596316</v>
+        <v>0.02062781163884958</v>
       </c>
       <c r="D109" t="n">
-        <v>3.246743826009345e-14</v>
+        <v>0.003590121561174624</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02973085504574692</v>
+        <v>0.03122783714350952</v>
       </c>
       <c r="F109" t="n">
-        <v>0.955073955372356</v>
+        <v>0.87286004042001</v>
       </c>
       <c r="G109" t="n">
-        <v>3.24674382600934e-14</v>
+        <v>0.003590121561174626</v>
       </c>
       <c r="H109" t="n">
-        <v>0.001004061645838481</v>
+        <v>0.004171264466480033</v>
       </c>
       <c r="I109" t="n">
-        <v>0.955073955372356</v>
+        <v>0.87286004042001</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4377,32 +4377,32 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82703.fa</t>
+          <t>even_MAG-GUT82654.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.03026572496074477</v>
+        <v>3.065411415390658e-14</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01205990533037916</v>
+        <v>0.01419112793596316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.002667543897145829</v>
+        <v>3.246743826009345e-14</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03321773087131409</v>
+        <v>0.02973085504574692</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9158295184874069</v>
+        <v>0.955073955372356</v>
       </c>
       <c r="G110" t="n">
-        <v>0.002667543897145835</v>
+        <v>3.24674382600934e-14</v>
       </c>
       <c r="H110" t="n">
-        <v>0.003292032555863475</v>
+        <v>0.001004061645838481</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9158295184874069</v>
+        <v>0.955073955372356</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4413,32 +4413,32 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82738.fa</t>
+          <t>even_MAG-GUT82703.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.220251907309616e-14</v>
+        <v>0.03026572496074477</v>
       </c>
       <c r="C111" t="n">
-        <v>0.005278000196351176</v>
+        <v>0.01205990533037916</v>
       </c>
       <c r="D111" t="n">
-        <v>2.220251907309616e-14</v>
+        <v>0.002667543897145829</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01114395144338706</v>
+        <v>0.03321773087131409</v>
       </c>
       <c r="F111" t="n">
-        <v>0.982572894185145</v>
+        <v>0.9158295184874069</v>
       </c>
       <c r="G111" t="n">
-        <v>2.220251907309616e-14</v>
+        <v>0.002667543897145835</v>
       </c>
       <c r="H111" t="n">
-        <v>0.001005154175050126</v>
+        <v>0.003292032555863475</v>
       </c>
       <c r="I111" t="n">
-        <v>0.982572894185145</v>
+        <v>0.9158295184874069</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4449,32 +4449,32 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82744.fa</t>
+          <t>even_MAG-GUT82738.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.429574177976061e-14</v>
+        <v>2.220251907309616e-14</v>
       </c>
       <c r="C112" t="n">
-        <v>0.005600166445467818</v>
+        <v>0.005278000196351176</v>
       </c>
       <c r="D112" t="n">
-        <v>2.465812436827059e-14</v>
+        <v>2.220251907309616e-14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01635121656711311</v>
+        <v>0.01114395144338706</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9775712905738764</v>
+        <v>0.982572894185145</v>
       </c>
       <c r="G112" t="n">
-        <v>2.465812436827057e-14</v>
+        <v>2.220251907309616e-14</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0004773264134691443</v>
+        <v>0.001005154175050126</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9775712905738764</v>
+        <v>0.982572894185145</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -4485,32 +4485,32 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84598.fa</t>
+          <t>even_MAG-GUT82744.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.219943377680641e-14</v>
+        <v>2.429574177976061e-14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0006292137706071798</v>
+        <v>0.005600166445467818</v>
       </c>
       <c r="D113" t="n">
-        <v>2.219943377680641e-14</v>
+        <v>2.465812436827059e-14</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01824934569407099</v>
+        <v>0.01635121656711311</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9805970422083313</v>
+        <v>0.9775712905738764</v>
       </c>
       <c r="G113" t="n">
-        <v>2.219943377680641e-14</v>
+        <v>2.465812436827057e-14</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0005243983269240253</v>
+        <v>0.0004773264134691443</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9805970422083313</v>
+        <v>0.9775712905738764</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -4521,32 +4521,32 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84613.fa</t>
+          <t>even_MAG-GUT84598.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.220047277413318e-14</v>
+        <v>2.219943377680641e-14</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004035902896788362</v>
+        <v>0.0006292137706071798</v>
       </c>
       <c r="D114" t="n">
-        <v>2.220047277413318e-14</v>
+        <v>2.219943377680641e-14</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02473365983982099</v>
+        <v>0.01824934569407099</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9706456008878335</v>
+        <v>0.9805970422083313</v>
       </c>
       <c r="G114" t="n">
-        <v>2.220047277413318e-14</v>
+        <v>2.219943377680641e-14</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0005848363754904479</v>
+        <v>0.0005243983269240253</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9706456008878335</v>
+        <v>0.9805970422083313</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -4557,32 +4557,32 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85104.fa</t>
+          <t>even_MAG-GUT84613.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.411121959667783e-14</v>
+        <v>2.220047277413318e-14</v>
       </c>
       <c r="C115" t="n">
-        <v>0.006670764854252181</v>
+        <v>0.004035902896788362</v>
       </c>
       <c r="D115" t="n">
-        <v>2.444364243443116e-14</v>
+        <v>2.220047277413318e-14</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02285254227885775</v>
+        <v>0.02473365983982099</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9691960739137021</v>
+        <v>0.9706456008878335</v>
       </c>
       <c r="G115" t="n">
-        <v>2.444364243443144e-14</v>
+        <v>2.220047277413318e-14</v>
       </c>
       <c r="H115" t="n">
-        <v>0.001280618953114998</v>
+        <v>0.0005848363754904479</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9691960739137021</v>
+        <v>0.9706456008878335</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -4593,32 +4593,32 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86870.fa</t>
+          <t>even_MAG-GUT85104.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.220300518239916e-14</v>
+        <v>2.411121959667783e-14</v>
       </c>
       <c r="C116" t="n">
-        <v>0.007862902845391153</v>
+        <v>0.006670764854252181</v>
       </c>
       <c r="D116" t="n">
-        <v>2.220300518239916e-14</v>
+        <v>2.444364243443116e-14</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0189566577818942</v>
+        <v>0.02285254227885775</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9727019165658276</v>
+        <v>0.9691960739137021</v>
       </c>
       <c r="G116" t="n">
-        <v>2.220300518239916e-14</v>
+        <v>2.444364243443144e-14</v>
       </c>
       <c r="H116" t="n">
-        <v>0.000478522806820464</v>
+        <v>0.001280618953114998</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9727019165658276</v>
+        <v>0.9691960739137021</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -4629,32 +4629,32 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87479.fa</t>
+          <t>even_MAG-GUT86870.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.640688549980547e-14</v>
+        <v>2.220300518239916e-14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0129048295746708</v>
+        <v>0.007862902845391153</v>
       </c>
       <c r="D117" t="n">
-        <v>2.722606895824054e-14</v>
+        <v>2.220300518239916e-14</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01713806378499894</v>
+        <v>0.0189566577818942</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9683696174691409</v>
+        <v>0.9727019165658276</v>
       </c>
       <c r="G117" t="n">
-        <v>2.722606895824056e-14</v>
+        <v>2.220300518239916e-14</v>
       </c>
       <c r="H117" t="n">
-        <v>0.001587489171108601</v>
+        <v>0.000478522806820464</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9683696174691409</v>
+        <v>0.9727019165658276</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -4665,32 +4665,32 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87575.fa</t>
+          <t>even_MAG-GUT87479.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2.22013187952938e-14</v>
+        <v>2.640688549980547e-14</v>
       </c>
       <c r="C118" t="n">
-        <v>0.00707515641256464</v>
+        <v>0.0129048295746708</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22013187952938e-14</v>
+        <v>2.722606895824054e-14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01686726149241159</v>
+        <v>0.01713806378499894</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9751062340200269</v>
+        <v>0.9683696174691409</v>
       </c>
       <c r="G118" t="n">
-        <v>2.22013187952938e-14</v>
+        <v>2.722606895824056e-14</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0009513480749302655</v>
+        <v>0.001587489171108601</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9751062340200269</v>
+        <v>0.9683696174691409</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -4701,32 +4701,32 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87833.fa</t>
+          <t>even_MAG-GUT87575.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2.220305311709003e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="C119" t="n">
-        <v>0.009565021291069382</v>
+        <v>0.00707515641256464</v>
       </c>
       <c r="D119" t="n">
-        <v>2.220305311709003e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01258184897304755</v>
+        <v>0.01686726149241159</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9765073811730566</v>
+        <v>0.9751062340200269</v>
       </c>
       <c r="G119" t="n">
-        <v>2.220305311709003e-14</v>
+        <v>2.22013187952938e-14</v>
       </c>
       <c r="H119" t="n">
-        <v>0.001345748562759972</v>
+        <v>0.0009513480749302655</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9765073811730566</v>
+        <v>0.9751062340200269</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -4737,32 +4737,32 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88081.fa</t>
+          <t>even_MAG-GUT87833.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.732777913536316e-14</v>
+        <v>2.220305311709003e-14</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0104305968242249</v>
+        <v>0.009565021291069382</v>
       </c>
       <c r="D120" t="n">
-        <v>2.835087055068899e-14</v>
+        <v>2.220305311709003e-14</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02199784740060143</v>
+        <v>0.01258184897304755</v>
       </c>
       <c r="F120" t="n">
-        <v>0.966473091852128</v>
+        <v>0.9765073811730566</v>
       </c>
       <c r="G120" t="n">
-        <v>2.835087055068901e-14</v>
+        <v>2.220305311709003e-14</v>
       </c>
       <c r="H120" t="n">
-        <v>0.001098463922961618</v>
+        <v>0.001345748562759972</v>
       </c>
       <c r="I120" t="n">
-        <v>0.966473091852128</v>
+        <v>0.9765073811730566</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -4773,32 +4773,32 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88255.fa</t>
+          <t>even_MAG-GUT88081.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.984437231753026e-14</v>
+        <v>2.732777913536316e-14</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01478193028601075</v>
+        <v>0.0104305968242249</v>
       </c>
       <c r="D121" t="n">
-        <v>3.146019212500414e-14</v>
+        <v>2.835087055068899e-14</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02250909315704949</v>
+        <v>0.02199784740060143</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9607978856823105</v>
+        <v>0.966473091852128</v>
       </c>
       <c r="G121" t="n">
-        <v>3.146019212500413e-14</v>
+        <v>2.835087055068901e-14</v>
       </c>
       <c r="H121" t="n">
-        <v>0.001911090874536434</v>
+        <v>0.001098463922961618</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9607978856823105</v>
+        <v>0.966473091852128</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -4809,32 +4809,32 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88680.fa</t>
+          <t>even_MAG-GUT88255.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.220004970515189e-14</v>
+        <v>2.984437231753026e-14</v>
       </c>
       <c r="C122" t="n">
-        <v>0.006661646625341687</v>
+        <v>0.01478193028601075</v>
       </c>
       <c r="D122" t="n">
-        <v>2.220004970515189e-14</v>
+        <v>3.146019212500414e-14</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01572933029330758</v>
+        <v>0.02250909315704949</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9770141866195823</v>
+        <v>0.9607978856823105</v>
       </c>
       <c r="G122" t="n">
-        <v>2.220004970515189e-14</v>
+        <v>3.146019212500413e-14</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0005948364617017195</v>
+        <v>0.001911090874536434</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9770141866195823</v>
+        <v>0.9607978856823105</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -4845,32 +4845,32 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88995.fa</t>
+          <t>even_MAG-GUT88680.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.732777913536316e-14</v>
+        <v>2.220004970515189e-14</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0104305968242249</v>
+        <v>0.006661646625341687</v>
       </c>
       <c r="D123" t="n">
-        <v>2.835087055068899e-14</v>
+        <v>2.220004970515189e-14</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02199784740060143</v>
+        <v>0.01572933029330758</v>
       </c>
       <c r="F123" t="n">
-        <v>0.966473091852128</v>
+        <v>0.9770141866195823</v>
       </c>
       <c r="G123" t="n">
-        <v>2.835087055068901e-14</v>
+        <v>2.220004970515189e-14</v>
       </c>
       <c r="H123" t="n">
-        <v>0.001098463922961618</v>
+        <v>0.0005948364617017195</v>
       </c>
       <c r="I123" t="n">
-        <v>0.966473091852128</v>
+        <v>0.9770141866195823</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -4881,32 +4881,32 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89180.fa</t>
+          <t>even_MAG-GUT88995.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.732777913536316e-14</v>
       </c>
       <c r="C124" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.0104305968242249</v>
       </c>
       <c r="D124" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.835087055068899e-14</v>
       </c>
       <c r="E124" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.02199784740060143</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.966473091852128</v>
       </c>
       <c r="G124" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.835087055068901e-14</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.001098463922961618</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.966473091852128</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89206.fa</t>
+          <t>even_MAG-GUT89180.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4953,32 +4953,32 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89239.fa</t>
+          <t>even_MAG-GUT89206.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.219913121444671e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001431683954941815</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D126" t="n">
-        <v>2.219913121444671e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01852544530857713</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9785501249438496</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G126" t="n">
-        <v>2.219913121444671e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H126" t="n">
-        <v>0.001492745792564881</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9785501249438496</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -4989,32 +4989,32 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89279.fa</t>
+          <t>even_MAG-GUT89239.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.555788592614927e-14</v>
+        <v>2.219913121444671e-14</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01740233519130759</v>
+        <v>0.001431683954941815</v>
       </c>
       <c r="D127" t="n">
-        <v>2.61966769722883e-14</v>
+        <v>2.219913121444671e-14</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02318996450799679</v>
+        <v>0.01852544530857713</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9572853452921228</v>
+        <v>0.9785501249438496</v>
       </c>
       <c r="G127" t="n">
-        <v>2.619667697228828e-14</v>
+        <v>2.219913121444671e-14</v>
       </c>
       <c r="H127" t="n">
-        <v>0.002122355008494821</v>
+        <v>0.001492745792564881</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9572853452921228</v>
+        <v>0.9785501249438496</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5025,32 +5025,32 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89290.fa</t>
+          <t>even_MAG-GUT89279.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.555788592614927e-14</v>
       </c>
       <c r="C128" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.01740233519130759</v>
       </c>
       <c r="D128" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.61966769722883e-14</v>
       </c>
       <c r="E128" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.02318996450799679</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9572853452921228</v>
       </c>
       <c r="G128" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.619667697228828e-14</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.002122355008494821</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9572853452921228</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5061,32 +5061,32 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89315.fa</t>
+          <t>even_MAG-GUT89290.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.286821377238663e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C129" t="n">
-        <v>0.010030685050162</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D129" t="n">
-        <v>2.296739916137908e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01596309601621958</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9731022250302006</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G129" t="n">
-        <v>2.296739916137909e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0009039939033490277</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9731022250302006</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5097,32 +5097,32 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89344.fa</t>
+          <t>even_MAG-GUT89315.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2.220166670670766e-14</v>
+        <v>2.286821377238663e-14</v>
       </c>
       <c r="C130" t="n">
-        <v>0.00426856443201242</v>
+        <v>0.010030685050162</v>
       </c>
       <c r="D130" t="n">
-        <v>2.220166670670766e-14</v>
+        <v>2.296739916137908e-14</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01393672249366712</v>
+        <v>0.01596309601621958</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9805771827977082</v>
+        <v>0.9731022250302006</v>
       </c>
       <c r="G130" t="n">
-        <v>2.220166670670766e-14</v>
+        <v>2.296739916137909e-14</v>
       </c>
       <c r="H130" t="n">
-        <v>0.001217530276545461</v>
+        <v>0.0009039939033490277</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9805771827977082</v>
+        <v>0.9731022250302006</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5133,32 +5133,32 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89353.fa</t>
+          <t>even_MAG-GUT89344.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220166670670766e-14</v>
       </c>
       <c r="C131" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.00426856443201242</v>
       </c>
       <c r="D131" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220166670670766e-14</v>
       </c>
       <c r="E131" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01393672249366712</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9805771827977082</v>
       </c>
       <c r="G131" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220166670670766e-14</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.001217530276545461</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9805771827977082</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -5169,32 +5169,32 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89416.fa</t>
+          <t>even_MAG-GUT89353.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.250891518866497e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C132" t="n">
-        <v>0.006539370350220459</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D132" t="n">
-        <v>2.254846612795689e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01985415711695083</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9728356055343813</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G132" t="n">
-        <v>2.25484661279569e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0007708669983798106</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9728356055343813</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5205,32 +5205,32 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89571.fa</t>
+          <t>even_MAG-GUT89416.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.250891518866497e-14</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004463683023288756</v>
+        <v>0.006539370350220459</v>
       </c>
       <c r="D133" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.254846612795689e-14</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01328229410142382</v>
+        <v>0.01985415711695083</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9807191063612098</v>
+        <v>0.9728356055343813</v>
       </c>
       <c r="G133" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.25484661279569e-14</v>
       </c>
       <c r="H133" t="n">
-        <v>0.001534916514010914</v>
+        <v>0.0007708669983798106</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9807191063612098</v>
+        <v>0.9728356055343813</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5241,32 +5241,32 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89719.fa</t>
+          <t>even_MAG-GUT89571.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="C134" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.004463683023288756</v>
       </c>
       <c r="D134" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="E134" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01328229410142382</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9807191063612098</v>
       </c>
       <c r="G134" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.001534916514010914</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9807191063612098</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5277,32 +5277,32 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89868.fa</t>
+          <t>even_MAG-GUT89719.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C135" t="n">
-        <v>0.006566282886813024</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D135" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01438037808848397</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G135" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0007884047995589786</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -5313,32 +5313,32 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89896.fa</t>
+          <t>even_MAG-GUT89868.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.220173304702483e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="C136" t="n">
-        <v>0.004706473911453073</v>
+        <v>0.006566282886813024</v>
       </c>
       <c r="D136" t="n">
-        <v>2.220173304702483e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01820992888473587</v>
+        <v>0.01438037808848397</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9765190081204284</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="G136" t="n">
-        <v>2.220173304702483e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0005645890833162463</v>
+        <v>0.0007884047995589786</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9765190081204284</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -5349,32 +5349,32 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90087.fa</t>
+          <t>even_MAG-GUT89896.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220173304702483e-14</v>
       </c>
       <c r="C137" t="n">
-        <v>0.006566282886813024</v>
+        <v>0.004706473911453073</v>
       </c>
       <c r="D137" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220173304702483e-14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01438037808848397</v>
+        <v>0.01820992888473587</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9765190081204284</v>
       </c>
       <c r="G137" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220173304702483e-14</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0007884047995589786</v>
+        <v>0.0005645890833162463</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9765190081204284</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -5385,32 +5385,32 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90109.fa</t>
+          <t>even_MAG-GUT90087.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="C138" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.006566282886813024</v>
       </c>
       <c r="D138" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="E138" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01438037808848397</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="G138" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.0007884047995589786</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90165.fa</t>
+          <t>even_MAG-GUT90109.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5457,32 +5457,32 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90191.fa</t>
+          <t>even_MAG-GUT90165.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.286821377238663e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C140" t="n">
-        <v>0.010030685050162</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D140" t="n">
-        <v>2.296739916137908e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01596309601621958</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9731022250302006</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G140" t="n">
-        <v>2.296739916137909e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0009039939033490277</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9731022250302006</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -5493,32 +5493,32 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90290.fa</t>
+          <t>even_MAG-GUT90191.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.366103832822742e-14</v>
+        <v>2.286821377238663e-14</v>
       </c>
       <c r="C141" t="n">
-        <v>0.008464922793661869</v>
+        <v>0.010030685050162</v>
       </c>
       <c r="D141" t="n">
-        <v>2.390459054605346e-14</v>
+        <v>2.296739916137908e-14</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01583371327926672</v>
+        <v>0.01596309601621958</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9740050417084535</v>
+        <v>0.9731022250302006</v>
       </c>
       <c r="G141" t="n">
-        <v>2.390459054605348e-14</v>
+        <v>2.296739916137909e-14</v>
       </c>
       <c r="H141" t="n">
-        <v>0.001696322218546523</v>
+        <v>0.0009039939033490277</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9740050417084535</v>
+        <v>0.9731022250302006</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -5529,32 +5529,32 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90323.fa</t>
+          <t>even_MAG-GUT90290.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.366103832822742e-14</v>
       </c>
       <c r="C142" t="n">
-        <v>0.006566282886813024</v>
+        <v>0.008464922793661869</v>
       </c>
       <c r="D142" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.390459054605346e-14</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01438037808848397</v>
+        <v>0.01583371327926672</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9740050417084535</v>
       </c>
       <c r="G142" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.390459054605348e-14</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0007884047995589786</v>
+        <v>0.001696322218546523</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9740050417084535</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -5565,32 +5565,32 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90479.fa</t>
+          <t>even_MAG-GUT90323.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.68358297285794e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01292821594024177</v>
+        <v>0.006566282886813024</v>
       </c>
       <c r="D143" t="n">
-        <v>2.774994378223798e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02272861058479149</v>
+        <v>0.01438037808848397</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9632555504904305</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="G143" t="n">
-        <v>2.774994378223795e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="H143" t="n">
-        <v>0.001087622984453879</v>
+        <v>0.0007884047995589786</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9632555504904305</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -5601,32 +5601,32 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90502.fa</t>
+          <t>even_MAG-GUT90479.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.68358297285794e-14</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004463683023288756</v>
+        <v>0.01292821594024177</v>
       </c>
       <c r="D144" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.774994378223798e-14</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01328229410142382</v>
+        <v>0.02272861058479149</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9807191063612098</v>
+        <v>0.9632555504904305</v>
       </c>
       <c r="G144" t="n">
-        <v>2.22003905213963e-14</v>
+        <v>2.774994378223795e-14</v>
       </c>
       <c r="H144" t="n">
-        <v>0.001534916514010914</v>
+        <v>0.001087622984453879</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9807191063612098</v>
+        <v>0.9632555504904305</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -5637,32 +5637,32 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90506.fa</t>
+          <t>even_MAG-GUT90502.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="C145" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.004463683023288756</v>
       </c>
       <c r="D145" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="E145" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01328229410142382</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9807191063612098</v>
       </c>
       <c r="G145" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.22003905213963e-14</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.001534916514010914</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9807191063612098</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -5673,32 +5673,32 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90686.fa</t>
+          <t>even_MAG-GUT90506.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.220133296505236e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C146" t="n">
-        <v>0.002861981318132206</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D146" t="n">
-        <v>2.220133296505236e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01057392881675954</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9857853468826486</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G146" t="n">
-        <v>2.220133296505236e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0007787429823930564</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9857853468826486</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -5709,32 +5709,32 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90699.fa</t>
+          <t>even_MAG-GUT90686.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220133296505236e-14</v>
       </c>
       <c r="C147" t="n">
-        <v>0.006566282886813024</v>
+        <v>0.002861981318132206</v>
       </c>
       <c r="D147" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220133296505236e-14</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01438037808848397</v>
+        <v>0.01057392881675954</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9857853468826486</v>
       </c>
       <c r="G147" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220133296505236e-14</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0007884047995589786</v>
+        <v>0.0007787429823930564</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9857853468826486</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -5745,32 +5745,32 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90976.fa</t>
+          <t>even_MAG-GUT90699.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="C148" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.006566282886813024</v>
       </c>
       <c r="D148" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="E148" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01438037808848397</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="G148" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.0007884047995589786</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -5781,32 +5781,32 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91042.fa</t>
+          <t>even_MAG-GUT90976.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="C149" t="n">
-        <v>0.006566282886813024</v>
+        <v>0.005067602853737464</v>
       </c>
       <c r="D149" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01438037808848397</v>
+        <v>0.009964740277548718</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="G149" t="n">
-        <v>2.220283714760842e-14</v>
+        <v>2.220300513616772e-14</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0007884047995589786</v>
+        <v>0.0009820753930330692</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9782649342250773</v>
+        <v>0.9839855814756142</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -5817,32 +5817,32 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91118.fa</t>
+          <t>even_MAG-GUT91042.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="C150" t="n">
-        <v>0.005067602853737464</v>
+        <v>0.006566282886813024</v>
       </c>
       <c r="D150" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="E150" t="n">
-        <v>0.009964740277548718</v>
+        <v>0.01438037808848397</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="G150" t="n">
-        <v>2.220300513616772e-14</v>
+        <v>2.220283714760842e-14</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0009820753930330692</v>
+        <v>0.0007884047995589786</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9839855814756142</v>
+        <v>0.9782649342250773</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91137.fa</t>
+          <t>even_MAG-GUT91118.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5889,34 +5889,70 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9659.fa</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B153" t="n">
         <v>2.220218952902381e-14</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C153" t="n">
         <v>0.009414982223620642</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D153" t="n">
         <v>2.220218952902381e-14</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E153" t="n">
         <v>0.01529811026074954</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F153" t="n">
         <v>0.9739836474435175</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G153" t="n">
         <v>2.220218952902381e-14</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H153" t="n">
         <v>0.001303260072045609</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I153" t="n">
         <v>0.9739836474435175</v>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>s__Acidaminococcus sp900538365</t>
         </is>

--- a/outputs-HGR-r202/g__Acidaminococcus.xlsx
+++ b/outputs-HGR-r202/g__Acidaminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -845,6 +895,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +936,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +977,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +1018,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -989,6 +1059,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,6 +1100,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1097,6 +1182,11 @@
           <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1133,6 +1223,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1169,6 +1264,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1205,6 +1305,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1241,6 +1346,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1277,6 +1387,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1313,6 +1428,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1349,6 +1469,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1385,6 +1510,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1421,6 +1551,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1457,6 +1592,11 @@
           <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1493,6 +1633,11 @@
           <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1529,6 +1674,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1565,6 +1715,11 @@
           <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1601,6 +1756,11 @@
           <t>s__Acidaminococcus intestini</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1637,6 +1797,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1673,6 +1838,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1709,6 +1879,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1745,6 +1920,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1781,6 +1961,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1817,6 +2002,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1853,6 +2043,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1889,6 +2084,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1925,6 +2125,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1961,6 +2166,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1997,6 +2207,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2033,6 +2248,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2069,6 +2289,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2105,6 +2330,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2141,6 +2371,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2177,6 +2412,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2213,6 +2453,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2249,6 +2494,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2285,6 +2535,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2321,6 +2576,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2357,6 +2617,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2393,6 +2658,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2429,6 +2699,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2465,6 +2740,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2501,6 +2781,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2537,6 +2822,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2573,6 +2863,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2609,6 +2904,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2645,6 +2945,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2681,6 +2986,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2717,6 +3027,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2753,6 +3068,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2789,6 +3109,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2825,6 +3150,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2861,6 +3191,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2897,6 +3232,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2933,6 +3273,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2969,6 +3314,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3005,6 +3355,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3041,6 +3396,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3077,6 +3437,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3113,6 +3478,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3149,6 +3519,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3185,6 +3560,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3221,6 +3601,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3257,6 +3642,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3293,6 +3683,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3329,6 +3724,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3365,6 +3765,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3401,6 +3806,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3437,6 +3847,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3473,6 +3888,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3509,6 +3929,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3545,6 +3970,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3581,6 +4011,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3617,6 +4052,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3653,6 +4093,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3689,6 +4134,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3725,6 +4175,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3761,6 +4216,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3797,6 +4257,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3833,6 +4298,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3869,6 +4339,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3905,6 +4380,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3941,6 +4421,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3977,6 +4462,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4013,6 +4503,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4049,6 +4544,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4085,6 +4585,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4121,6 +4626,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4157,6 +4667,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4193,6 +4708,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4229,6 +4749,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4265,6 +4790,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4301,6 +4831,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4337,6 +4872,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4373,6 +4913,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4409,6 +4954,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4445,6 +4995,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4481,6 +5036,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4517,6 +5077,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4553,6 +5118,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4589,6 +5159,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4625,6 +5200,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4661,6 +5241,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4697,6 +5282,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4733,6 +5323,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4769,6 +5364,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4805,6 +5405,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4841,6 +5446,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4877,6 +5487,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4913,6 +5528,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4949,6 +5569,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4985,6 +5610,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -5021,6 +5651,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -5057,6 +5692,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -5093,6 +5733,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -5129,6 +5774,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5165,6 +5815,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5201,6 +5856,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -5237,6 +5897,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -5273,6 +5938,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -5309,6 +5979,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -5345,6 +6020,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -5381,6 +6061,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -5417,6 +6102,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -5453,6 +6143,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -5489,6 +6184,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -5525,6 +6225,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -5561,6 +6266,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -5597,6 +6307,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -5633,6 +6348,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5669,6 +6389,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -5705,6 +6430,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -5741,6 +6471,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -5777,6 +6512,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -5813,6 +6553,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5849,6 +6594,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -5885,6 +6635,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5921,6 +6676,11 @@
           <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5953,6 +6713,11 @@
         <v>0.9739836474435175</v>
       </c>
       <c r="J153" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>s__Acidaminococcus sp900538365</t>
         </is>

--- a/outputs-HGR-r202/g__Acidaminococcus.xlsx
+++ b/outputs-HGR-r202/g__Acidaminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,32 +494,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17473.fa</t>
+          <t>even_MAG-GUT10270.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22004209802807e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007250046746302619</v>
+        <v>0.002086994899799648</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22004209802807e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01831724539569889</v>
+        <v>0.01304844147016414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9739054486103487</v>
+        <v>0.9845725001607989</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22004209802807e-14</v>
+        <v>2.220024279625043e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005272592475832132</v>
+        <v>0.000292063469170706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9739054486103487</v>
+        <v>0.9845725001607989</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -535,73 +535,73 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20639.fa</t>
+          <t>even_MAG-GUT10398.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4711239692021988</v>
+        <v>0.04739589499850337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04680755555095026</v>
+        <v>0.009006722568860131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00377085511148098</v>
+        <v>0.003384666088062832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.155972837460613</v>
+        <v>0.03903121793662898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01221523688483618</v>
+        <v>0.8941795807589247</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003770855111480976</v>
+        <v>0.003384666088062834</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3063386906784399</v>
+        <v>0.003617251560957161</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4711239692021988</v>
+        <v>0.8941795807589247</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23387.fa</t>
+          <t>even_MAG-GUT10625.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220337130090742e-14</v>
+        <v>2.219943591730975e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007989590851478207</v>
+        <v>0.001438864704625905</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220337130090742e-14</v>
+        <v>2.219943591730975e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02312713937578718</v>
+        <v>0.01932577789819118</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9650006163358293</v>
+        <v>0.9763627989746883</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220337130090742e-14</v>
+        <v>2.219943591730975e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003882653436838715</v>
+        <v>0.002872558422428071</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9650006163358293</v>
+        <v>0.9763627989746883</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,155 +617,155 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29878.fa</t>
+          <t>even_MAG-GUT11210.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4112272857062993</v>
+        <v>0.07910078046513315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03630604225284314</v>
+        <v>0.01148106087369844</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003842934175529608</v>
+        <v>0.003821466536690455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3698715123063538</v>
+        <v>0.05182434876286303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007970417349150646</v>
+        <v>0.8457120296587943</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003842934175529607</v>
+        <v>0.003821466536690448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1669388740342939</v>
+        <v>0.004238847166130316</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4112272857062993</v>
+        <v>0.8457120296587943</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT11332.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5229862516477504</v>
+        <v>2.220054368305276e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005480143223785628</v>
+        <v>0.003837809183294625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003793099613146713</v>
+        <v>2.220054368305276e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05391319820122793</v>
+        <v>0.01741490841824351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.335433430283663</v>
+        <v>0.9783872946381296</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06900386206654432</v>
+        <v>2.220054368305276e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009390014963882037</v>
+        <v>0.0003599877602655953</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5229862516477504</v>
+        <v>0.9783872946381296</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT11435.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4286141693916423</v>
+        <v>2.220258665249044e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005846710797809207</v>
+        <v>0.005828239595696845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004089982617067608</v>
+        <v>2.220258665249044e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06671728558188594</v>
+        <v>0.01227236443921886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4767210906494134</v>
+        <v>0.9801490843915932</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004089982617067609</v>
+        <v>2.220258665249044e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01392077834511397</v>
+        <v>0.001750311573424415</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4767210906494134</v>
+        <v>0.9801490843915932</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>s__Acidaminococcus intestini</t>
+          <t>s__Acidaminococcus sp900538365</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT13045.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.223598107947643e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009559714227835733</v>
+        <v>0.006808197315143389</v>
       </c>
       <c r="D8" t="n">
-        <v>2.223715238597213e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02037001123938602</v>
+        <v>0.01664253893897558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9690635689849608</v>
+        <v>0.9756376870836795</v>
       </c>
       <c r="G8" t="n">
-        <v>2.223715238597213e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001006705547750737</v>
+        <v>0.0009115766621349198</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9690635689849608</v>
+        <v>0.9756376870836795</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,32 +781,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT14741.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002413443770868266</v>
+        <v>0.006808197315143389</v>
       </c>
       <c r="D9" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01979645588621228</v>
+        <v>0.01664253893897558</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9775048218346204</v>
+        <v>0.9756376870836795</v>
       </c>
       <c r="G9" t="n">
-        <v>2.219996520688644e-14</v>
+        <v>2.220001852382188e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002852785082324824</v>
+        <v>0.0009115766621349198</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9775048218346204</v>
+        <v>0.9756376870836795</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -822,32 +822,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT15742.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.22020784710388e-14</v>
+        <v>2.671534846923069e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003505240605648891</v>
+        <v>0.009469786283325432</v>
       </c>
       <c r="D10" t="n">
-        <v>2.22020784710388e-14</v>
+        <v>2.759428951538087e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01108995163026255</v>
+        <v>0.01407784875496791</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9848224350880839</v>
+        <v>0.9746051722310534</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22020784710388e-14</v>
+        <v>2.759428951538084e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0005823726759382606</v>
+        <v>0.001847192730571406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9848224350880839</v>
+        <v>0.9746051722310534</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -863,32 +863,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT1677.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>3.752667122145183e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009281201057588297</v>
+        <v>0.005619053522705564</v>
       </c>
       <c r="D11" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>4.120313779876065e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02426798977626032</v>
+        <v>0.02046827406238938</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9739050093624437</v>
+        <v>0.9722924456333308</v>
       </c>
       <c r="G11" t="n">
-        <v>2.219434594740089e-14</v>
+        <v>4.120313779876148e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008988807554706352</v>
+        <v>0.001620226781454227</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9739050093624437</v>
+        <v>0.9722924456333308</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -904,32 +904,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.22002177690838e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008312671882815077</v>
+        <v>0.002107083580773814</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.22002177690838e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01455771929691838</v>
+        <v>0.01600654221553892</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9764865461442179</v>
+        <v>0.9817128410967016</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220210169581029e-14</v>
+        <v>2.22002177690838e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000643062675981904</v>
+        <v>0.0001735331069189058</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9764865461442179</v>
+        <v>0.9817128410967016</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT17473.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.22004209802807e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004873881470580621</v>
+        <v>0.007250046746302673</v>
       </c>
       <c r="D13" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.22004209802807e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01744048882271356</v>
+        <v>0.01831724539569715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9772203060304177</v>
+        <v>0.9739054486103503</v>
       </c>
       <c r="G13" t="n">
-        <v>2.219978435635807e-14</v>
+        <v>2.22004209802807e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004653236762216606</v>
+        <v>0.0005272592475832602</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9772203060304177</v>
+        <v>0.9739054486103503</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,32 +986,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT17515.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.412282274901771e-14</v>
+        <v>3.470183650219538e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002588342275035639</v>
+        <v>0.007637088244850872</v>
       </c>
       <c r="D14" t="n">
-        <v>3.686717178754988e-14</v>
+        <v>3.758059361403143e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03151355897207109</v>
+        <v>0.02895430506379714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9653261031544035</v>
+        <v>0.9624910887773556</v>
       </c>
       <c r="G14" t="n">
-        <v>3.686717178754984e-14</v>
+        <v>3.75805936140314e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005719955983818339</v>
+        <v>0.0009175179138866166</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9653261031544035</v>
+        <v>0.9624910887773556</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1027,39 +1027,5697 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT20287.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.949958067769502e-14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.007025700690074169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.102917300203931e-14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01958663792771133</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9725929148513197</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.102917300203925e-14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000794746530803174</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9725929148513197</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20540.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.220245145935724e-14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.007013178100360803</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.220245145935724e-14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0183141929720393</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9738772503339261</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.220245145935724e-14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0007953785936071412</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9738772503339261</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20603.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.22035242402058e-14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.008052089181999626</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.22035242402058e-14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01476761349267216</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9763418024039403</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.22035242402058e-14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0008384949213211632</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9763418024039403</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20639.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4711239692021151</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04680755555095392</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.003770855111480994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1559728374606494</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01221523688483626</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.003770855111481247</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3063386906784831</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4711239692021151</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2203.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.676603926838043e-14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005527699410506812</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.765796967959079e-14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02330966079314019</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9704628140169722</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.76579696795908e-14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0006998257792987467</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9704628140169722</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23387.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.220337130090742e-14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.007989590851478077</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.220337130090742e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02312713937578721</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9650006163358295</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.220337130090742e-14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00388265343683859</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9650006163358295</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT24052.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001089091722288484</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01478906774712739</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9837648153511996</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.219922914861236e-14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0003570251793179755</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9837648153511996</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25048.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.22010610035754e-14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.008856843316066428</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.22010610035754e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01441629048151152</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9754601110934846</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.22010610035754e-14</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.001266755108870752</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9754601110934846</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25340.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02643036058250102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.00469530063779232</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.002749189198260822</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02071828412071191</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9390880787473647</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.002749189198260827</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.003569597515108504</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9390880787473647</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29189.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.22012983181119e-14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003090591910544927</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.22012983181119e-14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01267036330508523</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9833254362959615</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.22012983181119e-14</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0009136084883417677</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9833254362959615</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29214.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.219919798437168e-14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.005954314192512302</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.219919798437168e-14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01537117634866668</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9775649354564276</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.219919798437168e-14</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.001109574002326885</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9775649354564276</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29221.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.22012845423885e-14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.003068799323257898</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.22012845423885e-14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01269822459267617</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.983323740030969</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.22012845423885e-14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0009092360530303244</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.983323740030969</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.224706744281362e-14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00518041127226803</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.224864847561818e-14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.022420768042715</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9719178528503351</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.224864847561818e-14</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0004809678346151636</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9719178528503351</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29878.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4112272857062546</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03630604225284313</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.003842934175529615</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3698715123063652</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.007970417349150655</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.003842934175529613</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1669388740343272</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4112272857062546</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT31785.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5229862516477378</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.005480143223785608</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.003793099613146697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.05391319820122887</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3354334302836744</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.06900386206654431</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.009390014963882042</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5229862516477378</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.219958130383727e-14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.004804817801550287</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.219958130383727e-14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02146749037506566</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9730032924418239</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.219958130383727e-14</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0007243993814935734</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9730032924418239</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33530.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4286141693916456</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005846710797809229</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.004089982617067623</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0667172855818825</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4767210906494135</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.004089982617067625</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01392077834511399</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4767210906494135</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33657.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7222837146184959</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.07353380131587416</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.003925311899599075</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.08753237453841198</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01217796971298659</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.003925311899599068</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.09662151601503315</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7222837146184959</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus intestini</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.003443144828685967</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02163768243249031</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9747006471078801</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.220090670076376e-14</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0002185256308768844</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9747006471078801</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.220101554286901e-14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.006405360238914877</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.220101554286901e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02366158087852193</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9695722526935748</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.220101554286901e-14</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0003608061889218256</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9695722526935748</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.220243356307206e-14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.004851819669952147</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.220243356307206e-14</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0127412258376954</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9818767141980422</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.220243356307206e-14</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.000530240294243581</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9818767141980422</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43248.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.223598107947635e-14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.009559714227836221</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.223715238597205e-14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.02037001123938688</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9690635689849595</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.223715238597204e-14</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.001006705547750707</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9690635689849595</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.219981864114695e-14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.001335227239004749</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.219981864114695e-14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01446593350809303</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9839483240928059</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.219981864114695e-14</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0002505151600297214</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9839483240928059</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.489185204905789e-14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.004877751042243945</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.782591684322622e-14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0229812018940764</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9711169661383312</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.782591684322621e-14</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001024080925237835</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9711169661383312</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45903.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.220318412683416e-14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.008070270045750767</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.220318412683416e-14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01641606545305611</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9750776119813376</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.220318412683416e-14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.000436052519788984</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9750776119813376</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.219993266563285e-14</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.001266984225681697</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.219993266563285e-14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01417193254787557</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9843006864238493</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.219993266563285e-14</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0002603968025267997</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9843006864238493</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51926.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.219996520688644e-14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.002413443770868194</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.219996520688644e-14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01979645588621258</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9775048218346202</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.219996520688644e-14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0002852785082324737</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9775048218346202</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.21992525279744e-14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.007345623489924445</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.21992525279744e-14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02022949616871176</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9719462685771929</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.21992525279744e-14</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0004786117641042586</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9719462685771929</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5341.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.220030494828558e-14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.001593672476751584</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.220030494828558e-14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01257701633700953</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.985139763716802</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.220030494828558e-14</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0006895474693704227</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.985139763716802</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56559.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.34842173326061e-14</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01228591862851608</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.369840847566582e-14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.02102382493445164</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9657832257399143</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.369840847566583e-14</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0009070306970472107</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9657832257399143</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.478907024030389e-14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.009049344114389788</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.52613931172995e-14</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.02186026630322489</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9681234117006633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.526139311729949e-14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0009669778816466281</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9681234117006633</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5676.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.003505240605648752</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0110899516302627</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9848224350880838</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.220207847103879e-14</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0005823726759382069</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9848224350880838</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.220063016543922e-14</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.004327754145683351</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.220063016543922e-14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.02184793124406918</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9730567878079351</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.220063016543922e-14</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0007675268022455613</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9730567878079351</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57190.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.219937820563835e-14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01175768445366516</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.219937820563835e-14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03231951153702491</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9540201755234824</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.219937820563835e-14</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.001902628485760997</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9540201755234824</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.478907024030389e-14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.009049344114389788</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.52613931172995e-14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.02186026630322489</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9681234117006633</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.526139311729949e-14</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0009669778816466281</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9681234117006633</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57398.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.006366560710251988</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02278156324921612</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9700484936649092</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.220072761291674e-14</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0008033823755562131</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9700484936649092</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57498.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.006246095237989659</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01284728863939436</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9803610398144311</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.220327848975352e-14</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0005455763081182627</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9803610398144311</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57542.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.02439971413211852</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01038194566836336</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.002459556277635874</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.02136216024110646</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9360268484255728</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.002459556277636157</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.002910218977566846</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9360268484255728</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57592.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0293250679315959</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01286487443174332</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.002727914878525899</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01829696591512219</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9306456214199144</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.002727914878525898</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.003411640544572338</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9306456214199144</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57771.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2.220138500673012e-14</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.003333568953359771</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.220138500673012e-14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01536231515556901</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9808709989400514</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.220138500673012e-14</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.000433116950953153</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9808709989400514</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.680085929995934e-14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005508929573127271</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.769394937948694e-14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01877754554021699</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9752332400655636</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.769394937948693e-14</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0004802848210100345</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9752332400655636</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.220442140887384e-14</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.002630605674639652</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.220442140887384e-14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02209617766548086</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9746502230066568</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.220442140887384e-14</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0006229936531561205</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9746502230066568</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2.220202905535036e-14</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.003922945249139415</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.220202905535036e-14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01199588353676961</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9834433258757975</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.220202905535036e-14</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0006378453382269505</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9834433258757975</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58672.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0835242754997243</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01121096154171723</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.003847710013233696</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.06037138689648414</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8330320295283858</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.003847710013233691</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.00416592650722099</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8330320295283858</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59502.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.782487501723563e-14</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01267269007666052</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.896844228003203e-14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.03140002524730298</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9548883219468564</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.896844228003205e-14</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.001038962729094281</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9548883219468564</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2.220202899220772e-14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.006137407140526939</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.220202899220772e-14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01708589769963594</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9760561538222627</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.220202899220772e-14</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0007205413375077362</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9760561538222627</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3.139638557574278e-14</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01030067653557411</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.34066399958856e-14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.03193874582058047</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9571046800174505</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.34066399958856e-14</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0006558976262967201</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9571046800174505</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59626.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.34842173326061e-14</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01228591862851608</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.369840847566582e-14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.02102382493445164</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9657832257399143</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.369840847566583e-14</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0009070306970472107</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9657832257399143</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60077.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.219993907954429e-14</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.007267495031603382</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.219993907954429e-14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01567627062974995</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9761661282407219</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.219993907954429e-14</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0008901060978581056</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9761661282407219</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60123.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.220203701461223e-14</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.003313216495368074</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.220203701461223e-14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.009697492465441647</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.986391617432379</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.220203701461223e-14</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0005976736067446993</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.986391617432379</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60157.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.220184829583635e-14</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.006103795557820754</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.220184829583635e-14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.01239849157182987</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9806777328022478</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.220184829583635e-14</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0008199800680348517</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9806777328022478</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.02646704846062258</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.004488462165718047</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.002751381342433355</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0247509978259332</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9357153623371588</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.002751381342433355</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.003075366525700638</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9357153623371588</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.219975452813986e-14</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.001822856286728731</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.219975452813986e-14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.01219593196128347</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9857027285100175</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.219975452813986e-14</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0002784832419036869</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9857027285100175</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60466.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.004464113142885853</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03751848127576073</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9574036767148779</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.220094754025731e-14</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0006137288664090399</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9574036767148779</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.72293277933969e-14</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.00381939290048926</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.823098377454866e-14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.03411766143111612</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9616475241319858</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.823098377454831e-14</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0004154215363251212</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9616475241319858</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.223628585335311e-14</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.004620621397949703</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.223746508428275e-14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02007917009970286</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9748223329070552</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.223746508428275e-14</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0004778755952254679</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9748223329070552</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.903023497458041e-14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.008748009894926084</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.045013182582122e-14</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.02337672749362335</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.966915726824416</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.045013182582123e-14</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0009595357869446652</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.966915726824416</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.289206778876554e-14</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.003144770522068876</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.299227712089606e-14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0155074768940009</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9810521625866251</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.299227712089623e-14</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0002955899972362766</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9810521625866251</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61623.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.003853958323423786</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01573689803343874</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9795013881300088</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.220129627398592e-14</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0009077555130621504</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9795013881300088</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61658.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.220257316341823e-14</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.005667387142196315</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.220257316341823e-14</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01416572397236715</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9792275921342812</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.220257316341823e-14</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0009392967510886145</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9792275921342812</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2.219986474035614e-14</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.001785672287205951</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.219986474035614e-14</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0177349058627771</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9801780523138428</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.219986474035614e-14</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0003013695361075982</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9801780523138428</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.312254869410181e-14</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.004448152143270066</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.32621418857526e-14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01299663532919975</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9819146778668856</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.326214188575258e-14</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0006405346605749993</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9819146778668856</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62117.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.220208771891261e-14</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.004814789435745793</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.220208771891261e-14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.01511209802619886</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9796474217908117</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.220208771891261e-14</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0004256907471769916</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9796474217908117</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62444.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.220206065904069e-14</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.00332988101598405</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.220206065904069e-14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.008615115936606977</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9875094625922076</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.220206065904069e-14</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0005455404551347348</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9875094625922076</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62509.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.220164827142804e-14</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.006142778523043095</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.220164827142804e-14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0159014418172661</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9772170517641336</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.220164827142804e-14</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0007387278954905836</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9772170517641336</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62666.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.220050038527878e-14</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.002155740148709305</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.220050038527878e-14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0152023404956</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9823381864247821</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.220050038527878e-14</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0003037329308421476</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9823381864247821</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6679.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2.219904065366512e-14</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0005574198648609288</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.219904065366512e-14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.008956138459092418</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9901778066115521</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.219904065366512e-14</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0003086350644278864</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9901778066115521</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69771.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.003427908642437191</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01378529816409982</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9808267847788673</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.220215056977576e-14</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.001960008414528959</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9808267847788673</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7031.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.002665738548518312</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.009142738714741524</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9871526914331981</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.220191305139429e-14</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.001038831303475493</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9871526914331981</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.001177012785102253</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01225309179803293</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9848914803716214</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.220087677823912e-14</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.001678415045176777</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.9848914803716214</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.322888641445932e-14</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.009985376513631279</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.339291121100367e-14</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01778327167570015</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9712308326339824</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.339291121100366e-14</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.001000519176616193</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9712308326339824</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2.220180953335368e-14</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.005778107070961823</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.220180953335368e-14</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01420786011410487</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9794568809377403</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.220180953335368e-14</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0005571518771264369</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9794568809377403</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2.22002919204275e-14</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.001719588946905957</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.22002919204275e-14</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01269908418421954</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9852974372784296</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.22002919204275e-14</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.000283889590378413</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9852974372784296</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74380.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.220078050714494e-14</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.002465749428381247</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.220078050714494e-14</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01263629949030124</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9845317323193533</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.220078050714494e-14</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.000366218761897647</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9845317323193533</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.220014650189546e-14</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.001915241463920778</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.220014650189546e-14</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.01611483148602437</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9817266922495205</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.220014650189546e-14</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0002432348004679127</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9817266922495205</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2.220051091314279e-14</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.004459000156910028</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.220051091314279e-14</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.02202392801830109</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9729514637151436</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.220051091314279e-14</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0005656081095786338</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9729514637151436</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75522.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.220169085959e-14</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.002039015323695507</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.220169085959e-14</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.02232083345502229</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9752512828586183</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.220169085959e-14</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0003888683625972751</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9752512828586183</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79350.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.2200700189802e-14</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01067483115404288</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.2200700189802e-14</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.02626372511317599</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9621147329501318</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.2200700189802e-14</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0009467107825827043</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9621147329501318</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80385.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.219434594740089e-14</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0009281201057588577</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.219434594740089e-14</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.02426798977625946</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9739050093624446</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.219434594740089e-14</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0008988807554706406</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9739050093624446</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80453.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.220210169581029e-14</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.008312671882814817</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.220210169581029e-14</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01455771929691877</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9764865461442179</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.220210169581029e-14</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0006430626759818892</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9764865461442179</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80718.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.219886805475008e-14</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.001039097304583488</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.219886805475008e-14</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01220330907060166</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9858933010775688</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.219886805475008e-14</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0008642925471794911</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9858933010775688</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80771.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2.219978435635807e-14</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.004873881470580442</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.219978435635807e-14</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0174404888227133</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9772203060304181</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.219978435635807e-14</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0004653236762216279</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9772203060304181</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2.220244385139239e-14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.003501401965352285</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.220244385139239e-14</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02397770269395675</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9719415479045072</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.220244385139239e-14</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0005793474361171752</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9719415479045072</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.002229639948174801</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.01633229387036965</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9812805856387739</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0001574805426152047</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9812805856387739</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.220059725988729e-14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.002168634431733347</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.220059725988729e-14</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0138030679076911</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9837778343009635</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.220059725988729e-14</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0002504633595453261</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9837778343009635</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.412282274901381e-14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.002588342275035311</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.686717178754487e-14</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.03151355897206982</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9653261031544053</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.686717178754487e-14</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0005719955983817945</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9653261031544053</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.002229639948174801</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01633229387036965</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9812805856387739</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.220002802828264e-14</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0001574805426152047</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9812805856387739</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82039.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2.220236937601348e-14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.004797883445563148</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.220236937601348e-14</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01371675401292586</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9797645485294497</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.220236937601348e-14</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.001720814011994773</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9797645485294497</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.02601799152525971</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01029030285343534</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.002545894077271725</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0227673721482775</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9327418970404865</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.002545894077271729</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.003090648277997552</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9327418970404865</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82160.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2.220035368490017e-14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.001798331126337965</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.220035368490017e-14</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.01126791579355734</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9866512720820285</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.220035368490017e-14</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0002824809980096144</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9866512720820285</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82436.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.2137671728587039</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01000713478091855</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.004195579139625467</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.04638594608535474</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7167052116651447</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.004195579139625477</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.004743376330627247</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7167052116651447</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2.442753638680968e-14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.01254060192887003</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.482800904756334e-14</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.02188898688569975</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9644626616934838</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.482800904756334e-14</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.001107749491872177</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9644626616934838</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82509.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.410360434814258e-14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0165820467153005</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.680256892864293e-14</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.02920217806366763</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9524694971143082</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.680256892864333e-14</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.001746278106615972</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9524694971143082</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82562.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3.410360434814258e-14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0165820467153005</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.680256892864293e-14</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.02920217806366763</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9524694971143082</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3.680256892864333e-14</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.001746278106615972</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9524694971143082</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.06393280320880165</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.02062781163884958</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.003590121561174624</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.03122783714350952</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.87286004042001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.003590121561174626</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.004171264466480033</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.87286004042001</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.065411415390658e-14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.01419112793596316</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.246743826009345e-14</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.02973085504574692</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.955073955372356</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3.24674382600934e-14</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.001004061645838481</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.955073955372356</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.03026572496074477</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01205990533037916</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.002667543897145829</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.03321773087131409</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9158295184874069</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.002667543897145835</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.003292032555863475</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9158295184874069</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82738.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2.220251907309616e-14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.005278000196351176</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.220251907309616e-14</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.01114395144338706</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.982572894185145</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.220251907309616e-14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.001005154175050126</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.982572894185145</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2.429574177976061e-14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.005600166445467818</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.465812436827059e-14</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01635121656711311</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9775712905738764</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.465812436827057e-14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0004773264134691443</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9775712905738764</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84598.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2.219943377680641e-14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0006292137706071798</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.219943377680641e-14</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.01824934569407099</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9805970422083313</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.219943377680641e-14</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0005243983269240253</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9805970422083313</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84613.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.220047277413318e-14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.004035902896788362</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.220047277413318e-14</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.02473365983982099</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9706456008878335</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.220047277413318e-14</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0005848363754904479</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9706456008878335</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85104.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.411121959667783e-14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.006670764854252181</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.444364243443116e-14</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.02285254227885775</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9691960739137021</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.444364243443144e-14</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.001280618953114998</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9691960739137021</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86870.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2.220300518239916e-14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.007862902845391153</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.220300518239916e-14</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0189566577818942</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9727019165658276</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.220300518239916e-14</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.000478522806820464</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9727019165658276</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87479.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2.640688549980547e-14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0129048295746708</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.722606895824054e-14</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.01713806378499894</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9683696174691409</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.722606895824056e-14</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.001587489171108601</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9683696174691409</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87575.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.00707515641256464</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.01686726149241159</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9751062340200269</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.22013187952938e-14</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0009513480749302655</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9751062340200269</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87833.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2.220305311709003e-14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.009565021291069382</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.220305311709003e-14</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.01258184897304755</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9765073811730566</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.220305311709003e-14</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.001345748562759972</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9765073811730566</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88081.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.732777913536316e-14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0104305968242249</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.835087055068899e-14</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.02199784740060143</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.966473091852128</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.835087055068901e-14</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.001098463922961618</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.966473091852128</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88255.fa</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2.984437231752886e-14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01478193028601012</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.14601921250024e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.02250909315704638</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9607978856823146</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.146019212500238e-14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.001911090874536158</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.9607978856823146</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>s__Acidaminococcus sp900538365</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="B122" t="n">
+        <v>2.984437231753026e-14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.01478193028601075</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.146019212500414e-14</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.02250909315704949</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9607978856823105</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3.146019212500413e-14</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.001911090874536434</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9607978856823105</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88680.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2.220004970515189e-14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.006661646625341687</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.220004970515189e-14</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.01572933029330758</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9770141866195823</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.220004970515189e-14</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0005948364617017195</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9770141866195823</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88995.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2.732777913536316e-14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0104305968242249</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.835087055068899e-14</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.02199784740060143</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.966473091852128</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.835087055068901e-14</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.001098463922961618</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.966473091852128</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89239.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2.219913121444671e-14</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.001431683954941815</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.219913121444671e-14</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.01852544530857713</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9785501249438496</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.219913121444671e-14</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.001492745792564881</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9785501249438496</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89279.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2.555788592614927e-14</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.01740233519130759</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.61966769722883e-14</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.02318996450799679</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9572853452921228</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.619667697228828e-14</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.002122355008494821</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9572853452921228</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2.286821377238663e-14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.010030685050162</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.296739916137908e-14</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.01596309601621958</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9731022250302006</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.296739916137909e-14</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0009039939033490277</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9731022250302006</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2.220166670670766e-14</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.00426856443201242</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.220166670670766e-14</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.01393672249366712</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9805771827977082</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.220166670670766e-14</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.001217530276545461</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9805771827977082</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89416.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.250891518866497e-14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.006539370350220459</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.254846612795689e-14</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.01985415711695083</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.9728356055343813</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.25484661279569e-14</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0007708669983798106</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9728356055343813</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.004463683023288756</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.01328229410142382</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9807191063612098</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.001534916514010914</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.9807191063612098</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89868.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.006566282886813024</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.01438037808848397</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0007884047995589786</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89896.fa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2.220173304702483e-14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.004706473911453073</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.220173304702483e-14</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.01820992888473587</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9765190081204284</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.220173304702483e-14</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0005645890833162463</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.9765190081204284</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90087.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.006566282886813024</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.01438037808848397</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0007884047995589786</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2.286821377238663e-14</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.010030685050162</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.296739916137908e-14</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.01596309601621958</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9731022250302006</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2.296739916137909e-14</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0009039939033490277</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.9731022250302006</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2.366103832822742e-14</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.008464922793661869</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.390459054605346e-14</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.01583371327926672</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9740050417084535</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2.390459054605348e-14</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.001696322218546523</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9740050417084535</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90323.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.006566282886813024</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.01438037808848397</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0007884047995589786</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90479.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2.68358297285794e-14</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.01292821594024177</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.774994378223798e-14</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.02272861058479149</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9632555504904305</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2.774994378223795e-14</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.001087622984453879</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.9632555504904305</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.004463683023288756</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.01328229410142382</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9807191063612098</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2.22003905213963e-14</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.001534916514010914</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.9807191063612098</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2.220133296505236e-14</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.002861981318132206</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.220133296505236e-14</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.01057392881675954</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9857853468826486</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2.220133296505236e-14</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0007787429823930564</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.9857853468826486</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90699.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.006566282886813024</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.01438037808848397</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0007884047995589786</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91042.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.006566282886813024</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.01438037808848397</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.220283714760842e-14</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0007884047995589786</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.9782649342250773</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.005067602853737464</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.009964740277548718</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.220300513616772e-14</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0009820753930330692</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.9839855814756142</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9659.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2.220218952902381e-14</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.009414982223620642</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.220218952902381e-14</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.01529811026074954</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9739836474435175</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2.220218952902381e-14</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.001303260072045609</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.9739836474435175</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>s__Acidaminococcus sp900538365</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>s__Acidaminococcus sp900538365</t>
         </is>
